--- a/digital&offset calculation.xlsx
+++ b/digital&offset calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alifka_Roosseo/Desktop/Project/Smart-printing-update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F321B61-CA29-5F43-8671-983AAC5D6386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D174B42-4057-664F-ABC3-5EA545DE0051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6F94AC71-25F1-C04E-9A3E-3D0AAD6F6349}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{6F94AC71-25F1-C04E-9A3E-3D0AAD6F6349}"/>
   </bookViews>
   <sheets>
     <sheet name="Offset" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="width" localSheetId="0">Offset!$C$2</definedName>
     <definedName name="width">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -503,9 +503,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,6 +548,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{2DE568A7-F32E-634E-84E7-B040DD233916}"/>
@@ -559,6 +559,118 @@
     <cellStyle name="Normal 4" xfId="1" xr:uid="{4867EAF3-A4C6-C640-B59B-65F20F66A76E}"/>
   </cellStyles>
   <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -679,118 +791,6 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB8CCE4"/>
@@ -846,13 +846,15 @@
       <sheetName val="Finishing (2)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
             <v xml:space="preserve">Printing </v>
           </cell>
+          <cell r="B1"/>
+          <cell r="C1"/>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -861,6 +863,7 @@
           <cell r="B2" t="str">
             <v>UP</v>
           </cell>
+          <cell r="C2"/>
         </row>
         <row r="3">
           <cell r="A3">
@@ -42487,60 +42490,60 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0600D8F5-D9C6-B44F-ADDD-117BE9E6F31D}" name="Table_216" displayName="Table_216" ref="A3:Q43" headerRowDxfId="19" dataDxfId="18" totalsRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0600D8F5-D9C6-B44F-ADDD-117BE9E6F31D}" name="Table_216" displayName="Table_216" ref="A3:Q43" headerRowDxfId="33" dataDxfId="32" totalsRowDxfId="31">
   <autoFilter ref="A3:Q43" xr:uid="{D4FBE10F-91E3-4572-A773-2DA7A6A144A9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Q43">
     <sortCondition ref="O3:O43"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{12600DE9-FE6F-324E-95DA-BC9B688F8880}" name="Cut pcs" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{886721E8-FAE2-AA42-ADA7-1D86AE728850}" name="W" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BEA0F74E-7EB0-364A-B910-BD384D984D66}" name="H" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{8819FAB4-749D-8345-BF84-4414F7DCC378}" name="Option 1" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{12600DE9-FE6F-324E-95DA-BC9B688F8880}" name="Cut pcs" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{886721E8-FAE2-AA42-ADA7-1D86AE728850}" name="W" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{BEA0F74E-7EB0-364A-B910-BD384D984D66}" name="H" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{8819FAB4-749D-8345-BF84-4414F7DCC378}" name="Option 1" dataDxfId="27">
       <calculatedColumnFormula>ROUNDDOWN((Table_216[[#This Row],[W]])/(height+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(width+1),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{541AED37-9B49-034A-B2EE-3136B4007267}" name="Option 2" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{541AED37-9B49-034A-B2EE-3136B4007267}" name="Option 2" dataDxfId="26">
       <calculatedColumnFormula>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{46DC6629-FFFC-5B4A-938C-E72F77223E4A}" name="No. of ups" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{46DC6629-FFFC-5B4A-938C-E72F77223E4A}" name="No. of ups" dataDxfId="25">
       <calculatedColumnFormula>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{A5A55CE3-ED34-6441-B129-09B5144A5689}" name="Odd or even" dataDxfId="10">
+    <tableColumn id="18" xr3:uid="{A5A55CE3-ED34-6441-B129-09B5144A5689}" name="Odd or even" dataDxfId="24">
       <calculatedColumnFormula>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{120BCC5F-6AE2-1B4C-8474-A8DBFC1C8682}" name="ups per Sht" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{120BCC5F-6AE2-1B4C-8474-A8DBFC1C8682}" name="ups per Sht" dataDxfId="23">
       <calculatedColumnFormula>Table_216[[#This Row],[No. of ups]]*A4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B63359CA-7CC7-A742-A4E2-2ECC3A7EA33F}" name="Waste Sheets" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{B63359CA-7CC7-A742-A4E2-2ECC3A7EA33F}" name="Waste Sheets" dataDxfId="22">
       <calculatedColumnFormula>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{EDA508B3-CF92-2941-8B81-34AE7328CDEB}" name="Sheets" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{EDA508B3-CF92-2941-8B81-34AE7328CDEB}" name="Sheets" dataDxfId="21">
       <calculatedColumnFormula>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{F1B7792E-B0A6-524C-9B45-9C7AABA054B5}" name="paper cost" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{F1B7792E-B0A6-524C-9B45-9C7AABA054B5}" name="paper cost" dataDxfId="20">
       <calculatedColumnFormula>Table_216[[#This Row],[Sheets]]*$K$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D63CF8CB-5A21-A64F-88F1-CB07E6ED3774}" name="Units" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{D63CF8CB-5A21-A64F-88F1-CB07E6ED3774}" name="Units" dataDxfId="19">
       <calculatedColumnFormula>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{EFD3CEB8-6FA4-2447-8A6A-87195B52F81D}" name="unit price" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{EFD3CEB8-6FA4-2447-8A6A-87195B52F81D}" name="unit price" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{A69E067A-36E7-BE40-9BFE-F22FA7B47EF6}" name="Plate" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{A69E067A-36E7-BE40-9BFE-F22FA7B47EF6}" name="Plate" dataDxfId="17">
       <calculatedColumnFormula>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{181B807C-7BE4-334D-B7F7-B8FB5E52D097}" name="total" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{181B807C-7BE4-334D-B7F7-B8FB5E52D097}" name="total" dataDxfId="16">
       <calculatedColumnFormula>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0550F822-FA63-6242-A431-A2D1C9A98F5A}" name="Height" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{AD870F01-A381-5A42-8B19-9ACD7CE70FA9}" name="Width" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{0550F822-FA63-6242-A431-A2D1C9A98F5A}" name="Height" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{AD870F01-A381-5A42-8B19-9ACD7CE70FA9}" name="Width" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="Cut Size-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -42554,42 +42557,42 @@
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{DBDADBC8-5901-C94D-A8F3-7E05A1437A1D}" name="Cut pcs"/>
-    <tableColumn id="2" xr3:uid="{C133B732-BB04-ED4D-BDCA-EC7B0E43CBF6}" name="W" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{C7F89EE5-BD96-0243-BA80-37072E878A83}" name="H" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{E840BA87-3965-4742-A889-40CA38F0746B}" name="Option 1" dataDxfId="31">
+    <tableColumn id="2" xr3:uid="{C133B732-BB04-ED4D-BDCA-EC7B0E43CBF6}" name="W" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C7F89EE5-BD96-0243-BA80-37072E878A83}" name="H" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E840BA87-3965-4742-A889-40CA38F0746B}" name="Option 1" dataDxfId="11">
       <calculatedColumnFormula>ROUNDDOWN((Table_22[[#This Row],[W]])/(height+1),0)*ROUNDDOWN((Table_22[[#This Row],[H]])/(width+1),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8C045D52-9482-AA42-B808-CFDC302B15CD}" name="Option 2" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{8C045D52-9482-AA42-B808-CFDC302B15CD}" name="Option 2" dataDxfId="10">
       <calculatedColumnFormula>ROUNDDOWN((Table_22[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_22[[#This Row],[H]])/(height+1),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA5B14BF-7F1C-DC43-AC9D-A2D38F039E7E}" name="No. of ups" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{FA5B14BF-7F1C-DC43-AC9D-A2D38F039E7E}" name="No. of ups" dataDxfId="9">
       <calculatedColumnFormula>IF(Table_22[[#This Row],[Option 1]]&gt;Table_22[[#This Row],[Option 2]],Table_22[[#This Row],[Option 1]],Table_22[[#This Row],[Option 2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5316C0F3-DEBD-8548-9507-96EA638BBBB8}" name="Odd or even" dataDxfId="28">
+    <tableColumn id="18" xr3:uid="{5316C0F3-DEBD-8548-9507-96EA638BBBB8}" name="Odd or even" dataDxfId="8">
       <calculatedColumnFormula>IF($L$1=1,TRUE,ISEVEN(Table_22[[#This Row],[No. of ups]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{044780A2-69BA-834A-B208-88DE4BE6E3D4}" name="ups per Sht" dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{044780A2-69BA-834A-B208-88DE4BE6E3D4}" name="ups per Sht" dataDxfId="7">
       <calculatedColumnFormula>Table_22[[#This Row],[No. of ups]]*A4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B7C53C12-AB79-0641-9603-D9AFCFB46932}" name="Waste Sheets" dataDxfId="26">
+    <tableColumn id="9" xr3:uid="{B7C53C12-AB79-0641-9603-D9AFCFB46932}" name="Waste Sheets" dataDxfId="6">
       <calculatedColumnFormula>3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A3CD09D9-BDA7-C14B-9C54-7B662F080785}" name="Sheets" dataDxfId="25">
+    <tableColumn id="10" xr3:uid="{A3CD09D9-BDA7-C14B-9C54-7B662F080785}" name="Sheets" dataDxfId="5">
       <calculatedColumnFormula>IF(Table_22[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_22[[#This Row],[ups per Sht]]+Table_22[[#This Row],[Waste Sheets]],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{A1B00DDA-3778-BB47-B8A9-2EF619433B21}" name="paper cost" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{A1B00DDA-3778-BB47-B8A9-2EF619433B21}" name="paper cost" dataDxfId="4">
       <calculatedColumnFormula>Table_22[[#This Row],[Sheets]]*$K$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4AC007FC-57F6-2E49-B6D4-BBD2B60EAC69}" name="Units" dataDxfId="23">
+    <tableColumn id="12" xr3:uid="{4AC007FC-57F6-2E49-B6D4-BBD2B60EAC69}" name="Units" dataDxfId="3">
       <calculatedColumnFormula>IF(Table_22[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_22[[#This Row],[Sheets]]*Table_22[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_22[[#This Row],[Sheets]]*Table_22[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_22[[#This Row],[Sheets]]*Table_22[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_22[[#This Row],[Sheets]]*Table_22[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0DCCA420-D741-1C4A-BD17-0956F426B150}" name="price" dataDxfId="22">
+    <tableColumn id="13" xr3:uid="{0DCCA420-D741-1C4A-BD17-0956F426B150}" name="price" dataDxfId="2">
       <calculatedColumnFormula>(Table_22[[#This Row],[Sheets]])*Table_22[[#This Row],[Cut pcs]]*Table_22[[#This Row],[Per click]]*$L$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FF70F02A-CE57-BF40-8F67-759152EF3490}" name="Per click" dataDxfId="21">
+    <tableColumn id="14" xr3:uid="{FF70F02A-CE57-BF40-8F67-759152EF3490}" name="Per click" dataDxfId="1">
       <calculatedColumnFormula>IF(Table_22[[#This Row],[Sheets]]*Table_22[[#This Row],[Cut pcs]]&gt;200,IF($L$2=4,1.25,0.5),IF($L$2=4,1.5,0.75))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A2FF2F1A-961B-7D44-BA65-871C120AF5C0}" name="total" dataDxfId="20">
+    <tableColumn id="15" xr3:uid="{A2FF2F1A-961B-7D44-BA65-871C120AF5C0}" name="total" dataDxfId="0">
       <calculatedColumnFormula>IF(Table_22[[#This Row],[Sheets]]=0,0,Table_22[[#This Row],[price]]+Table_22[[#This Row],[paper cost]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -42919,9 +42922,9 @@
   </sheetPr>
   <dimension ref="A1:W947"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42939,7 +42942,7 @@
     <col min="12" max="12" width="10.1640625" style="34" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="34" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="64" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="63" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="34" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.1640625" style="34" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="8.6640625" style="35" customWidth="1"/>
@@ -43008,10 +43011,10 @@
       </c>
       <c r="N2" s="39"/>
       <c r="O2" s="38"/>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="42"/>
+      <c r="Q2" s="64"/>
       <c r="T2" s="35">
         <v>2</v>
       </c>
@@ -43062,10 +43065,10 @@
       <c r="O3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="35">
@@ -43073,13 +43076,13 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="A4" s="49">
         <v>6</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="50">
         <v>45</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="50">
         <v>21.3</v>
       </c>
       <c r="D4" s="34">
@@ -43090,11 +43093,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G4" s="52" t="b">
+      <c r="G4" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43102,11 +43105,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>17</v>
       </c>
-      <c r="J4" s="54">
+      <c r="J4" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43118,7 +43121,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43126,14 +43129,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="56">
+      <c r="P4" s="55">
         <v>64</v>
       </c>
-      <c r="Q4" s="56">
+      <c r="Q4" s="55">
         <v>90</v>
       </c>
       <c r="T4" s="35">
@@ -43141,13 +43144,13 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="57">
+      <c r="A5" s="56">
         <v>7</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="57">
         <v>40</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="57">
         <v>20</v>
       </c>
       <c r="D5" s="34">
@@ -43158,11 +43161,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G5" s="52" t="b">
+      <c r="G5" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43170,11 +43173,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>15</v>
       </c>
-      <c r="J5" s="54">
+      <c r="J5" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43186,7 +43189,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43194,7 +43197,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43209,13 +43212,13 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="57">
+      <c r="A6" s="56">
         <v>10</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="57">
         <v>35</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="57">
         <v>20</v>
       </c>
       <c r="D6" s="34">
@@ -43226,11 +43229,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G6" s="52" t="b">
+      <c r="G6" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43238,11 +43241,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>10</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43254,7 +43257,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43262,7 +43265,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43277,13 +43280,13 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="57">
+      <c r="A7" s="56">
         <v>6</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="57">
         <v>52</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="57">
         <v>17.5</v>
       </c>
       <c r="D7" s="34">
@@ -43294,11 +43297,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G7" s="52" t="b">
+      <c r="G7" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43306,11 +43309,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>20</v>
       </c>
-      <c r="J7" s="54">
+      <c r="J7" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43322,7 +43325,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43330,7 +43333,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43343,16 +43346,16 @@
       <c r="T7" s="35">
         <v>7</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="58"/>
     </row>
     <row r="8" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="57">
+      <c r="A8" s="56">
         <v>11</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="57">
         <v>30</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="57">
         <v>20</v>
       </c>
       <c r="D8" s="34">
@@ -43363,11 +43366,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G8" s="52" t="b">
+      <c r="G8" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43375,11 +43378,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>10</v>
       </c>
-      <c r="J8" s="54">
+      <c r="J8" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43391,7 +43394,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43399,7 +43402,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43412,16 +43415,16 @@
       <c r="T8" s="35">
         <v>8</v>
       </c>
-      <c r="W8" s="59"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
+      <c r="A9" s="49">
         <v>4</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="50">
         <v>21.5</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="50">
         <v>30.5</v>
       </c>
       <c r="D9" s="34">
@@ -43432,11 +43435,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G9" s="52" t="b">
+      <c r="G9" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43444,11 +43447,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>25</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="59">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43460,7 +43463,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43468,14 +43471,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="60">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="55">
         <v>43</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="55">
         <v>61</v>
       </c>
       <c r="T9" s="35">
@@ -43483,13 +43486,13 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="57">
+      <c r="A10" s="56">
         <v>10</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="57">
         <v>28</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="57">
         <v>22</v>
       </c>
       <c r="D10" s="34">
@@ -43500,11 +43503,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G10" s="52" t="b">
+      <c r="G10" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43512,11 +43515,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>10</v>
       </c>
-      <c r="J10" s="54">
+      <c r="J10" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43528,7 +43531,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43536,7 +43539,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43551,13 +43554,13 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="56">
         <v>12</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="57">
         <v>25</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="57">
         <v>23</v>
       </c>
       <c r="D11" s="34">
@@ -43568,11 +43571,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G11" s="52" t="b">
+      <c r="G11" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43580,11 +43583,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>9</v>
       </c>
-      <c r="J11" s="54">
+      <c r="J11" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43596,7 +43599,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M11" s="55">
+      <c r="M11" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43604,7 +43607,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O11" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43619,13 +43622,13 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="57">
+      <c r="A12" s="56">
         <v>14</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="57">
         <v>35</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="57">
         <v>14</v>
       </c>
       <c r="D12" s="34">
@@ -43636,11 +43639,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G12" s="52" t="b">
+      <c r="G12" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43648,11 +43651,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>8</v>
       </c>
-      <c r="J12" s="54">
+      <c r="J12" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43664,7 +43667,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43672,7 +43675,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43687,13 +43690,13 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="57">
+      <c r="A13" s="56">
         <v>15</v>
       </c>
-      <c r="B13" s="58">
+      <c r="B13" s="57">
         <v>23</v>
       </c>
-      <c r="C13" s="58">
+      <c r="C13" s="57">
         <v>20</v>
       </c>
       <c r="D13" s="34">
@@ -43704,11 +43707,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G13" s="52" t="b">
+      <c r="G13" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43716,11 +43719,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>7</v>
       </c>
-      <c r="J13" s="54">
+      <c r="J13" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43732,7 +43735,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43740,7 +43743,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43755,13 +43758,13 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="57">
+      <c r="A14" s="56">
         <v>14</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="57">
         <v>25</v>
       </c>
-      <c r="C14" s="58">
+      <c r="C14" s="57">
         <v>20</v>
       </c>
       <c r="D14" s="34">
@@ -43772,11 +43775,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G14" s="52" t="b">
+      <c r="G14" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43784,11 +43787,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43800,7 +43803,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43808,7 +43811,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43823,13 +43826,13 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="57">
+      <c r="A15" s="56">
         <v>12</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="57">
         <v>30</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="57">
         <v>17.5</v>
       </c>
       <c r="D15" s="34">
@@ -43840,11 +43843,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G15" s="52" t="b">
+      <c r="G15" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43852,11 +43855,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>9</v>
       </c>
-      <c r="J15" s="54">
+      <c r="J15" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43868,7 +43871,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43876,7 +43879,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -43891,13 +43894,13 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
+      <c r="A16" s="49">
         <v>12</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="50">
         <v>22.5</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="50">
         <v>21</v>
       </c>
       <c r="D16" s="34">
@@ -43908,11 +43911,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G16" s="52" t="b">
+      <c r="G16" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43920,11 +43923,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>9</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -43936,7 +43939,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -43944,14 +43947,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="56">
+      <c r="P16" s="55">
         <v>64</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="55">
         <v>90</v>
       </c>
       <c r="T16" s="35">
@@ -43959,13 +43962,13 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="57">
+      <c r="A17" s="56">
         <v>21</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="57">
         <v>23</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="57">
         <v>14</v>
       </c>
       <c r="D17" s="34">
@@ -43976,11 +43979,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G17" s="52" t="b">
+      <c r="G17" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -43988,11 +43991,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>5</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44004,7 +44007,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M17" s="55">
+      <c r="M17" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44012,7 +44015,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O17" s="55">
+      <c r="O17" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -44027,13 +44030,13 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="57">
+      <c r="A18" s="56">
         <v>20</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="57">
         <v>25</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="57">
         <v>14</v>
       </c>
       <c r="D18" s="34">
@@ -44044,11 +44047,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="52">
+      <c r="F18" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G18" s="52" t="b">
+      <c r="G18" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44056,11 +44059,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>5</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44072,7 +44075,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M18" s="55">
+      <c r="M18" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44080,7 +44083,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O18" s="55">
+      <c r="O18" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -44095,13 +44098,13 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="57">
+      <c r="A19" s="56">
         <v>18</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="57">
         <v>23</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="57">
         <v>16.5</v>
       </c>
       <c r="D19" s="34">
@@ -44112,11 +44115,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="52">
+      <c r="F19" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G19" s="52" t="b">
+      <c r="G19" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44124,11 +44127,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>6</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J19" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44140,7 +44143,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="55">
+      <c r="M19" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44148,7 +44151,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O19" s="55">
+      <c r="O19" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -44163,13 +44166,13 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57">
+      <c r="A20" s="56">
         <v>17</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="57">
         <v>28</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="57">
         <v>14</v>
       </c>
       <c r="D20" s="34">
@@ -44180,11 +44183,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G20" s="52" t="b">
+      <c r="G20" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44192,11 +44195,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>6</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44208,7 +44211,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44216,7 +44219,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O20" s="55">
+      <c r="O20" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -44231,13 +44234,13 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57">
+      <c r="A21" s="56">
         <v>16</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="57">
         <v>25</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="57">
         <v>17.5</v>
       </c>
       <c r="D21" s="34">
@@ -44248,11 +44251,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G21" s="52" t="b">
+      <c r="G21" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44260,11 +44263,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>7</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44276,7 +44279,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44284,7 +44287,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O21" s="55">
+      <c r="O21" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -44299,13 +44302,13 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="A22" s="49">
         <v>16</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="50">
         <v>22.5</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <v>16</v>
       </c>
       <c r="D22" s="34">
@@ -44316,11 +44319,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G22" s="52" t="b">
+      <c r="G22" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44328,11 +44331,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>7</v>
       </c>
-      <c r="J22" s="54">
+      <c r="J22" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44344,7 +44347,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M22" s="55">
+      <c r="M22" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44352,14 +44355,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O22" s="55">
+      <c r="O22" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="56">
+      <c r="P22" s="55">
         <v>64</v>
       </c>
-      <c r="Q22" s="56">
+      <c r="Q22" s="55">
         <v>90</v>
       </c>
       <c r="T22" s="35">
@@ -44367,13 +44370,13 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="56">
         <v>25</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="57">
         <v>20</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="57">
         <v>14</v>
       </c>
       <c r="D23" s="34">
@@ -44384,11 +44387,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G23" s="52" t="b">
+      <c r="G23" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44396,11 +44399,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>4</v>
       </c>
-      <c r="J23" s="54">
+      <c r="J23" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44412,7 +44415,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M23" s="55">
+      <c r="M23" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44420,7 +44423,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O23" s="55">
+      <c r="O23" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -44435,13 +44438,13 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57">
+      <c r="A24" s="56">
         <v>20</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="57">
         <v>20</v>
       </c>
-      <c r="C24" s="58">
+      <c r="C24" s="57">
         <v>17.5</v>
       </c>
       <c r="D24" s="34">
@@ -44452,11 +44455,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F24" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G24" s="52" t="b">
+      <c r="G24" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44464,11 +44467,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>5</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44480,7 +44483,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44488,7 +44491,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O24" s="55">
+      <c r="O24" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
@@ -44503,13 +44506,13 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
+      <c r="A25" s="49">
         <v>18</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="50">
         <v>20</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <v>14</v>
       </c>
       <c r="D25" s="34">
@@ -44520,11 +44523,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F25" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>0</v>
       </c>
-      <c r="G25" s="52" t="b">
+      <c r="G25" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44532,11 +44535,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>6</v>
       </c>
-      <c r="J25" s="54">
+      <c r="J25" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>0</v>
       </c>
@@ -44548,7 +44551,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>2</v>
       </c>
-      <c r="M25" s="55">
+      <c r="M25" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>100</v>
       </c>
@@ -44556,14 +44559,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O25" s="55">
+      <c r="O25" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="56">
+      <c r="P25" s="55">
         <v>64</v>
       </c>
-      <c r="Q25" s="56">
+      <c r="Q25" s="55">
         <v>90</v>
       </c>
       <c r="T25" s="35">
@@ -44571,13 +44574,13 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57">
+      <c r="A26" s="56">
         <v>4</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="57">
         <v>50</v>
       </c>
-      <c r="C26" s="58">
+      <c r="C26" s="57">
         <v>35</v>
       </c>
       <c r="D26" s="34">
@@ -44588,11 +44591,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>2</v>
       </c>
-      <c r="G26" s="52" t="b">
+      <c r="G26" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44600,11 +44603,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A26</f>
         <v>8</v>
       </c>
-      <c r="I26" s="53">
+      <c r="I26" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>25</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>400</v>
       </c>
@@ -44616,7 +44619,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>7</v>
       </c>
-      <c r="M26" s="55">
+      <c r="M26" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>350</v>
       </c>
@@ -44624,7 +44627,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O26" s="55">
+      <c r="O26" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>4430</v>
       </c>
@@ -44639,13 +44642,13 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50">
+      <c r="A27" s="49">
         <v>4</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="50">
         <v>45</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="50">
         <v>32</v>
       </c>
       <c r="D27" s="34">
@@ -44656,11 +44659,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>2</v>
       </c>
-      <c r="G27" s="52" t="b">
+      <c r="G27" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44668,11 +44671,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A27</f>
         <v>8</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I27" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>25</v>
       </c>
-      <c r="J27" s="54">
+      <c r="J27" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>400</v>
       </c>
@@ -44684,7 +44687,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>7</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>350</v>
       </c>
@@ -44692,14 +44695,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O27" s="55">
+      <c r="O27" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>4430</v>
       </c>
-      <c r="P27" s="56">
+      <c r="P27" s="55">
         <v>64</v>
       </c>
-      <c r="Q27" s="56">
+      <c r="Q27" s="55">
         <v>90</v>
       </c>
       <c r="T27" s="35">
@@ -44707,13 +44710,13 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57">
+      <c r="A28" s="56">
         <v>2</v>
       </c>
-      <c r="B28" s="58">
+      <c r="B28" s="57">
         <v>70</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="57">
         <v>50</v>
       </c>
       <c r="D28" s="34">
@@ -44724,11 +44727,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>4</v>
       </c>
-      <c r="G28" s="52" t="b">
+      <c r="G28" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44736,11 +44739,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A28</f>
         <v>8</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I28" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>60</v>
       </c>
-      <c r="J28" s="54">
+      <c r="J28" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>435</v>
       </c>
@@ -44752,7 +44755,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>4</v>
       </c>
-      <c r="M28" s="55">
+      <c r="M28" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>200</v>
       </c>
@@ -44760,7 +44763,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>100</v>
       </c>
-      <c r="O28" s="55">
+      <c r="O28" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>4750</v>
       </c>
@@ -44775,13 +44778,13 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50">
+      <c r="A29" s="49">
         <v>2</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="50">
         <v>64</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="50">
         <v>45</v>
       </c>
       <c r="D29" s="34">
@@ -44792,11 +44795,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>4</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>4</v>
       </c>
-      <c r="G29" s="52" t="b">
+      <c r="G29" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -44804,11 +44807,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A29</f>
         <v>8</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>60</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>435</v>
       </c>
@@ -44820,7 +44823,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>4</v>
       </c>
-      <c r="M29" s="55">
+      <c r="M29" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>200</v>
       </c>
@@ -44828,14 +44831,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>100</v>
       </c>
-      <c r="O29" s="55">
+      <c r="O29" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>4750</v>
       </c>
-      <c r="P29" s="56">
+      <c r="P29" s="55">
         <v>64</v>
       </c>
-      <c r="Q29" s="56">
+      <c r="Q29" s="55">
         <v>90</v>
       </c>
       <c r="T29" s="35">
@@ -44843,13 +44846,13 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57">
+      <c r="A30" s="56">
         <v>9</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="57">
         <v>33</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="57">
         <v>23</v>
       </c>
       <c r="D30" s="34">
@@ -44860,11 +44863,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G30" s="52" t="b">
+      <c r="G30" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -44872,11 +44875,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A30</f>
         <v>9</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>12</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>346</v>
       </c>
@@ -44888,7 +44891,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M30" s="55">
+      <c r="M30" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -44896,7 +44899,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>4660</v>
       </c>
@@ -44911,13 +44914,13 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62">
+      <c r="A31" s="61">
         <v>3</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="57">
         <v>70</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="57">
         <v>33</v>
       </c>
       <c r="D31" s="34">
@@ -44928,11 +44931,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>2</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>3</v>
       </c>
-      <c r="G31" s="52" t="b">
+      <c r="G31" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -44940,11 +44943,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A31</f>
         <v>9</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>40</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>374</v>
       </c>
@@ -44956,7 +44959,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>10</v>
       </c>
-      <c r="M31" s="55">
+      <c r="M31" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>500</v>
       </c>
@@ -44964,7 +44967,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>200</v>
       </c>
-      <c r="O31" s="55">
+      <c r="O31" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>4640</v>
       </c>
@@ -44979,13 +44982,13 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62">
+      <c r="A32" s="61">
         <v>8</v>
       </c>
-      <c r="B32" s="58">
+      <c r="B32" s="57">
         <v>35</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="57">
         <v>25</v>
       </c>
       <c r="D32" s="34">
@@ -44996,11 +44999,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G32" s="52" t="b">
+      <c r="G32" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45008,11 +45011,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A32</f>
         <v>8</v>
       </c>
-      <c r="I32" s="53">
+      <c r="I32" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>13</v>
       </c>
-      <c r="J32" s="54">
+      <c r="J32" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>388</v>
       </c>
@@ -45024,7 +45027,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M32" s="55">
+      <c r="M32" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45032,7 +45035,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O32" s="55">
+      <c r="O32" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>5080</v>
       </c>
@@ -45047,13 +45050,13 @@
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50">
+      <c r="A33" s="49">
         <v>8</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="50">
         <v>32</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <v>22.5</v>
       </c>
       <c r="D33" s="34">
@@ -45064,11 +45067,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G33" s="52" t="b">
+      <c r="G33" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45076,11 +45079,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A33</f>
         <v>8</v>
       </c>
-      <c r="I33" s="53">
+      <c r="I33" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>13</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>388</v>
       </c>
@@ -45092,7 +45095,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M33" s="55">
+      <c r="M33" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45100,14 +45103,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O33" s="55">
+      <c r="O33" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>5080</v>
       </c>
-      <c r="P33" s="56">
+      <c r="P33" s="55">
         <v>64</v>
       </c>
-      <c r="Q33" s="56">
+      <c r="Q33" s="55">
         <v>90</v>
       </c>
       <c r="T33" s="35">
@@ -45115,13 +45118,13 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62">
+      <c r="A34" s="61">
         <v>7</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="57">
         <v>38</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="57">
         <v>23</v>
       </c>
       <c r="D34" s="34">
@@ -45132,11 +45135,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G34" s="52" t="b">
+      <c r="G34" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45144,11 +45147,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A34</f>
         <v>7</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>15</v>
       </c>
-      <c r="J34" s="54">
+      <c r="J34" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>444</v>
       </c>
@@ -45160,7 +45163,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M34" s="55">
+      <c r="M34" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45168,7 +45171,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O34" s="55">
+      <c r="O34" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>5640</v>
       </c>
@@ -45183,13 +45186,13 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62">
+      <c r="A35" s="61">
         <v>3</v>
       </c>
-      <c r="B35" s="58">
+      <c r="B35" s="57">
         <v>65</v>
       </c>
-      <c r="C35" s="58">
+      <c r="C35" s="57">
         <v>35</v>
       </c>
       <c r="D35" s="34">
@@ -45200,11 +45203,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>2</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>2</v>
       </c>
-      <c r="G35" s="52" t="b">
+      <c r="G35" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -45212,11 +45215,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A35</f>
         <v>6</v>
       </c>
-      <c r="I35" s="53">
+      <c r="I35" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>40</v>
       </c>
-      <c r="J35" s="54">
+      <c r="J35" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>540</v>
       </c>
@@ -45228,7 +45231,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>7</v>
       </c>
-      <c r="M35" s="55">
+      <c r="M35" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>350</v>
       </c>
@@ -45236,7 +45239,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>100</v>
       </c>
-      <c r="O35" s="55">
+      <c r="O35" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>5950</v>
       </c>
@@ -45251,13 +45254,13 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
+      <c r="A36" s="49">
         <v>3</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="50">
         <v>64</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="50">
         <v>30</v>
       </c>
       <c r="D36" s="34">
@@ -45268,11 +45271,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>2</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>2</v>
       </c>
-      <c r="G36" s="52" t="b">
+      <c r="G36" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -45280,11 +45283,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A36</f>
         <v>6</v>
       </c>
-      <c r="I36" s="53">
+      <c r="I36" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>40</v>
       </c>
-      <c r="J36" s="54">
+      <c r="J36" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>540</v>
       </c>
@@ -45296,7 +45299,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>7</v>
       </c>
-      <c r="M36" s="55">
+      <c r="M36" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>350</v>
       </c>
@@ -45304,14 +45307,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>100</v>
       </c>
-      <c r="O36" s="55">
+      <c r="O36" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>5950</v>
       </c>
-      <c r="P36" s="56">
+      <c r="P36" s="55">
         <v>64</v>
       </c>
-      <c r="Q36" s="56">
+      <c r="Q36" s="55">
         <v>90</v>
       </c>
       <c r="T36" s="35">
@@ -45319,13 +45322,13 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62">
+      <c r="A37" s="61">
         <v>6</v>
       </c>
-      <c r="B37" s="58">
+      <c r="B37" s="57">
         <v>35</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="57">
         <v>33</v>
       </c>
       <c r="D37" s="34">
@@ -45336,11 +45339,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G37" s="52" t="b">
+      <c r="G37" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45348,11 +45351,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A37</f>
         <v>6</v>
       </c>
-      <c r="I37" s="53">
+      <c r="I37" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>17</v>
       </c>
-      <c r="J37" s="54">
+      <c r="J37" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>517</v>
       </c>
@@ -45364,7 +45367,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M37" s="55">
+      <c r="M37" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45372,7 +45375,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O37" s="55">
+      <c r="O37" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>6370</v>
       </c>
@@ -45387,13 +45390,13 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62">
+      <c r="A38" s="61">
         <v>6</v>
       </c>
-      <c r="B38" s="58">
+      <c r="B38" s="57">
         <v>50</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="57">
         <v>23</v>
       </c>
       <c r="D38" s="34">
@@ -45404,11 +45407,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G38" s="52" t="b">
+      <c r="G38" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45416,11 +45419,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A38</f>
         <v>6</v>
       </c>
-      <c r="I38" s="53">
+      <c r="I38" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>17</v>
       </c>
-      <c r="J38" s="54">
+      <c r="J38" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>517</v>
       </c>
@@ -45432,7 +45435,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M38" s="55">
+      <c r="M38" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45440,7 +45443,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O38" s="55">
+      <c r="O38" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>6370</v>
       </c>
@@ -45455,13 +45458,13 @@
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="57">
+      <c r="A39" s="56">
         <v>6</v>
       </c>
-      <c r="B39" s="58">
+      <c r="B39" s="57">
         <v>45</v>
       </c>
-      <c r="C39" s="58">
+      <c r="C39" s="57">
         <v>25</v>
       </c>
       <c r="D39" s="34">
@@ -45472,11 +45475,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G39" s="52" t="b">
+      <c r="G39" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45484,11 +45487,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A39</f>
         <v>6</v>
       </c>
-      <c r="I39" s="53">
+      <c r="I39" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>17</v>
       </c>
-      <c r="J39" s="54">
+      <c r="J39" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>517</v>
       </c>
@@ -45500,7 +45503,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M39" s="55">
+      <c r="M39" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45508,7 +45511,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O39" s="55">
+      <c r="O39" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>6370</v>
       </c>
@@ -45523,13 +45526,13 @@
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63">
+      <c r="A40" s="62">
         <v>6</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="50">
         <v>32</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="50">
         <v>30</v>
       </c>
       <c r="D40" s="34">
@@ -45540,11 +45543,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G40" s="52" t="b">
+      <c r="G40" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45552,11 +45555,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A40</f>
         <v>6</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>17</v>
       </c>
-      <c r="J40" s="54">
+      <c r="J40" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>517</v>
       </c>
@@ -45568,7 +45571,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M40" s="55">
+      <c r="M40" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45576,14 +45579,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O40" s="55">
+      <c r="O40" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>6370</v>
       </c>
-      <c r="P40" s="56">
+      <c r="P40" s="55">
         <v>64</v>
       </c>
-      <c r="Q40" s="56">
+      <c r="Q40" s="55">
         <v>90</v>
       </c>
       <c r="T40" s="35">
@@ -45591,13 +45594,13 @@
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="57">
+      <c r="A41" s="56">
         <v>5</v>
       </c>
-      <c r="B41" s="58">
+      <c r="B41" s="57">
         <v>40</v>
       </c>
-      <c r="C41" s="58">
+      <c r="C41" s="57">
         <v>30</v>
       </c>
       <c r="D41" s="34">
@@ -45608,11 +45611,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G41" s="52" t="b">
+      <c r="G41" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45620,11 +45623,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A41</f>
         <v>5</v>
       </c>
-      <c r="I41" s="53">
+      <c r="I41" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>20</v>
       </c>
-      <c r="J41" s="54">
+      <c r="J41" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>620</v>
       </c>
@@ -45636,7 +45639,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M41" s="55">
+      <c r="M41" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45644,7 +45647,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O41" s="55">
+      <c r="O41" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>7400</v>
       </c>
@@ -45659,13 +45662,13 @@
       </c>
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62">
+      <c r="A42" s="61">
         <v>5</v>
       </c>
-      <c r="B42" s="58">
+      <c r="B42" s="57">
         <v>52</v>
       </c>
-      <c r="C42" s="58">
+      <c r="C42" s="57">
         <v>23</v>
       </c>
       <c r="D42" s="34">
@@ -45676,11 +45679,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>1</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>1</v>
       </c>
-      <c r="G42" s="52" t="b">
+      <c r="G42" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>0</v>
       </c>
@@ -45688,11 +45691,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A42</f>
         <v>5</v>
       </c>
-      <c r="I42" s="53">
+      <c r="I42" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>24</v>
       </c>
-      <c r="J42" s="54">
+      <c r="J42" s="53">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>624</v>
       </c>
@@ -45704,7 +45707,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>26</v>
       </c>
-      <c r="M42" s="55">
+      <c r="M42" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>1040</v>
       </c>
@@ -45712,7 +45715,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>80</v>
       </c>
-      <c r="O42" s="55">
+      <c r="O42" s="54">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>7440</v>
       </c>
@@ -45727,13 +45730,13 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63">
+      <c r="A43" s="62">
         <v>1</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="50">
         <v>43</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="50">
         <v>61</v>
       </c>
       <c r="D43" s="34">
@@ -45744,11 +45747,11 @@
         <f>ROUNDDOWN((Table_216[[#This Row],[W]])/(width+1),0)*ROUNDDOWN((Table_216[[#This Row],[H]])/(height+1),0)</f>
         <v>2</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="51">
         <f>IF(Table_216[[#This Row],[Option 1]]&gt;Table_216[[#This Row],[Option 2]],Table_216[[#This Row],[Option 1]],Table_216[[#This Row],[Option 2]])</f>
         <v>2</v>
       </c>
-      <c r="G43" s="52" t="b">
+      <c r="G43" s="51" t="b">
         <f>IF($L$1=1,TRUE,ISEVEN(Table_216[[#This Row],[No. of ups]]))</f>
         <v>1</v>
       </c>
@@ -45756,11 +45759,11 @@
         <f>Table_216[[#This Row],[No. of ups]]*A43</f>
         <v>2</v>
       </c>
-      <c r="I43" s="53">
+      <c r="I43" s="52">
         <f>ROUNDUP(IF(Table_216[[#This Row],[W]]&gt;50,120/Table_216[[#This Row],[Cut pcs]],100/Table_216[[#This Row],[Cut pcs]]),0)</f>
         <v>100</v>
       </c>
-      <c r="J43" s="60">
+      <c r="J43" s="59">
         <f>IF(Table_216[[#This Row],[ups per Sht]]=0,0,ROUNDUP($J$2/Table_216[[#This Row],[ups per Sht]]+Table_216[[#This Row],[Waste Sheets]],0))</f>
         <v>1600</v>
       </c>
@@ -45772,7 +45775,7 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0)),IF($L$2&gt;ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0),$L$2,ROUNDUP((Table_216[[#This Row],[Sheets]]*Table_216[[#This Row],[Cut pcs]]*$L$2*$L$1)/1000,0))*2)</f>
         <v>7</v>
       </c>
-      <c r="M43" s="55">
+      <c r="M43" s="54">
         <f>VLOOKUP(Table_216[[#This Row],[Units]],[1]Units!A:C,3)</f>
         <v>350</v>
       </c>
@@ -45780,14 +45783,14 @@
         <f>IF(Table_216[[#This Row],[Odd or even]]=TRUE,IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2),IF(Table_216[[#This Row],[W]]&gt;54,50*$L$2,20*$L$2)*2)</f>
         <v>40</v>
       </c>
-      <c r="O43" s="61">
+      <c r="O43" s="60">
         <f>IF(Table_216[[#This Row],[Sheets]]=0,0,Table_216[[#This Row],[unit price]]+Table_216[[#This Row],[paper cost]]+Table_216[[#This Row],[Plate]]*2)</f>
         <v>16430</v>
       </c>
-      <c r="P43" s="56">
+      <c r="P43" s="55">
         <v>43</v>
       </c>
-      <c r="Q43" s="56">
+      <c r="Q43" s="55">
         <v>61</v>
       </c>
       <c r="T43" s="35">
@@ -45795,3370 +45798,3370 @@
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I44" s="53"/>
+      <c r="I44" s="52"/>
       <c r="T44" s="35">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I45" s="53"/>
+      <c r="I45" s="52"/>
       <c r="T45" s="35">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I46" s="53"/>
+      <c r="I46" s="52"/>
       <c r="T46" s="35">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="53"/>
+      <c r="I47" s="52"/>
       <c r="T47" s="35">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="53"/>
+      <c r="I48" s="52"/>
       <c r="T48" s="35">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I49" s="53"/>
+      <c r="I49" s="52"/>
       <c r="T49" s="35">
         <v>95</v>
       </c>
     </row>
     <row r="50" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I50" s="53"/>
+      <c r="I50" s="52"/>
       <c r="T50" s="35">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I51" s="53"/>
+      <c r="I51" s="52"/>
       <c r="T51" s="35">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I52" s="53"/>
+      <c r="I52" s="52"/>
       <c r="T52" s="35">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I53" s="53"/>
+      <c r="I53" s="52"/>
       <c r="T53" s="35">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I54" s="53"/>
+      <c r="I54" s="52"/>
       <c r="T54" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I55" s="53"/>
+      <c r="I55" s="52"/>
       <c r="T55" s="35">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I56" s="53"/>
+      <c r="I56" s="52"/>
       <c r="T56" s="35">
         <v>102</v>
       </c>
     </row>
     <row r="57" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I57" s="53"/>
+      <c r="I57" s="52"/>
       <c r="T57" s="35">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I58" s="53"/>
+      <c r="I58" s="52"/>
       <c r="T58" s="35">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I59" s="53"/>
+      <c r="I59" s="52"/>
       <c r="T59" s="35">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I60" s="53"/>
+      <c r="I60" s="52"/>
       <c r="T60" s="35">
         <v>106</v>
       </c>
     </row>
     <row r="61" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I61" s="53"/>
+      <c r="I61" s="52"/>
       <c r="T61" s="35">
         <v>107</v>
       </c>
     </row>
     <row r="62" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I62" s="53"/>
+      <c r="I62" s="52"/>
       <c r="T62" s="35">
         <v>108</v>
       </c>
     </row>
     <row r="63" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I63" s="53"/>
+      <c r="I63" s="52"/>
       <c r="T63" s="35">
         <v>109</v>
       </c>
     </row>
     <row r="64" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I64" s="53"/>
+      <c r="I64" s="52"/>
       <c r="T64" s="35">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I65" s="53"/>
+      <c r="I65" s="52"/>
       <c r="T65" s="35">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I66" s="53"/>
+      <c r="I66" s="52"/>
       <c r="T66" s="35">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I67" s="53"/>
+      <c r="I67" s="52"/>
       <c r="T67" s="35">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I68" s="53"/>
+      <c r="I68" s="52"/>
       <c r="T68" s="35">
         <v>114</v>
       </c>
     </row>
     <row r="69" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I69" s="53"/>
+      <c r="I69" s="52"/>
       <c r="T69" s="35">
         <v>115</v>
       </c>
     </row>
     <row r="70" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I70" s="53"/>
+      <c r="I70" s="52"/>
       <c r="T70" s="35">
         <v>116</v>
       </c>
     </row>
     <row r="71" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I71" s="53"/>
+      <c r="I71" s="52"/>
       <c r="T71" s="35">
         <v>117</v>
       </c>
     </row>
     <row r="72" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I72" s="53"/>
+      <c r="I72" s="52"/>
       <c r="T72" s="35">
         <v>118</v>
       </c>
     </row>
     <row r="73" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I73" s="53"/>
+      <c r="I73" s="52"/>
       <c r="T73" s="35">
         <v>119</v>
       </c>
     </row>
     <row r="74" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I74" s="53"/>
+      <c r="I74" s="52"/>
       <c r="T74" s="35">
         <v>120</v>
       </c>
     </row>
     <row r="75" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I75" s="53"/>
+      <c r="I75" s="52"/>
       <c r="T75" s="35">
         <v>121</v>
       </c>
     </row>
     <row r="76" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I76" s="53"/>
+      <c r="I76" s="52"/>
       <c r="T76" s="35">
         <v>122</v>
       </c>
     </row>
     <row r="77" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I77" s="53"/>
+      <c r="I77" s="52"/>
       <c r="T77" s="35">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I78" s="53"/>
+      <c r="I78" s="52"/>
       <c r="T78" s="35">
         <v>124</v>
       </c>
     </row>
     <row r="79" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I79" s="53"/>
+      <c r="I79" s="52"/>
       <c r="T79" s="35">
         <v>125</v>
       </c>
     </row>
     <row r="80" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I80" s="53"/>
+      <c r="I80" s="52"/>
       <c r="T80" s="35">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I81" s="53"/>
+      <c r="I81" s="52"/>
       <c r="T81" s="35">
         <v>127</v>
       </c>
     </row>
     <row r="82" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I82" s="53"/>
+      <c r="I82" s="52"/>
       <c r="T82" s="35">
         <v>128</v>
       </c>
     </row>
     <row r="83" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I83" s="53"/>
+      <c r="I83" s="52"/>
       <c r="T83" s="35">
         <v>129</v>
       </c>
     </row>
     <row r="84" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I84" s="53"/>
+      <c r="I84" s="52"/>
       <c r="T84" s="35">
         <v>130</v>
       </c>
     </row>
     <row r="85" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I85" s="53"/>
+      <c r="I85" s="52"/>
       <c r="T85" s="35">
         <v>131</v>
       </c>
     </row>
     <row r="86" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I86" s="53"/>
+      <c r="I86" s="52"/>
       <c r="T86" s="35">
         <v>132</v>
       </c>
     </row>
     <row r="87" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I87" s="53"/>
+      <c r="I87" s="52"/>
       <c r="T87" s="35">
         <v>133</v>
       </c>
     </row>
     <row r="88" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I88" s="53"/>
+      <c r="I88" s="52"/>
       <c r="T88" s="35">
         <v>134</v>
       </c>
     </row>
     <row r="89" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I89" s="53"/>
+      <c r="I89" s="52"/>
       <c r="T89" s="35">
         <v>135</v>
       </c>
     </row>
     <row r="90" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I90" s="53"/>
+      <c r="I90" s="52"/>
       <c r="T90" s="35">
         <v>136</v>
       </c>
     </row>
     <row r="91" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I91" s="53"/>
+      <c r="I91" s="52"/>
       <c r="T91" s="35">
         <v>137</v>
       </c>
     </row>
     <row r="92" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I92" s="53"/>
+      <c r="I92" s="52"/>
       <c r="T92" s="35">
         <v>138</v>
       </c>
     </row>
     <row r="93" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I93" s="53"/>
+      <c r="I93" s="52"/>
       <c r="T93" s="35">
         <v>139</v>
       </c>
     </row>
     <row r="94" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I94" s="53"/>
+      <c r="I94" s="52"/>
       <c r="T94" s="35">
         <v>140</v>
       </c>
     </row>
     <row r="95" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I95" s="53"/>
+      <c r="I95" s="52"/>
       <c r="T95" s="35">
         <v>141</v>
       </c>
     </row>
     <row r="96" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I96" s="53"/>
+      <c r="I96" s="52"/>
       <c r="T96" s="35">
         <v>142</v>
       </c>
     </row>
     <row r="97" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I97" s="53"/>
+      <c r="I97" s="52"/>
       <c r="T97" s="35">
         <v>143</v>
       </c>
     </row>
     <row r="98" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I98" s="53"/>
+      <c r="I98" s="52"/>
       <c r="T98" s="35">
         <v>144</v>
       </c>
     </row>
     <row r="99" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I99" s="53"/>
+      <c r="I99" s="52"/>
       <c r="T99" s="35">
         <v>145</v>
       </c>
     </row>
     <row r="100" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I100" s="53"/>
+      <c r="I100" s="52"/>
       <c r="T100" s="35">
         <v>146</v>
       </c>
     </row>
     <row r="101" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I101" s="53"/>
+      <c r="I101" s="52"/>
       <c r="T101" s="35">
         <v>147</v>
       </c>
     </row>
     <row r="102" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I102" s="53"/>
+      <c r="I102" s="52"/>
       <c r="T102" s="35">
         <v>148</v>
       </c>
     </row>
     <row r="103" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I103" s="53"/>
+      <c r="I103" s="52"/>
       <c r="T103" s="35">
         <v>149</v>
       </c>
     </row>
     <row r="104" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I104" s="53"/>
+      <c r="I104" s="52"/>
       <c r="T104" s="35">
         <v>150</v>
       </c>
     </row>
     <row r="105" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I105" s="53"/>
+      <c r="I105" s="52"/>
       <c r="T105" s="35">
         <v>151</v>
       </c>
     </row>
     <row r="106" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I106" s="53"/>
+      <c r="I106" s="52"/>
       <c r="T106" s="35">
         <v>152</v>
       </c>
     </row>
     <row r="107" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I107" s="53"/>
+      <c r="I107" s="52"/>
       <c r="T107" s="35">
         <v>153</v>
       </c>
     </row>
     <row r="108" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I108" s="53"/>
+      <c r="I108" s="52"/>
       <c r="T108" s="35">
         <v>154</v>
       </c>
     </row>
     <row r="109" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I109" s="53"/>
+      <c r="I109" s="52"/>
       <c r="T109" s="35">
         <v>155</v>
       </c>
     </row>
     <row r="110" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I110" s="53"/>
+      <c r="I110" s="52"/>
       <c r="T110" s="35">
         <v>156</v>
       </c>
     </row>
     <row r="111" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I111" s="53"/>
+      <c r="I111" s="52"/>
       <c r="T111" s="35">
         <v>157</v>
       </c>
     </row>
     <row r="112" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I112" s="53"/>
+      <c r="I112" s="52"/>
       <c r="T112" s="35">
         <v>158</v>
       </c>
     </row>
     <row r="113" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I113" s="53"/>
+      <c r="I113" s="52"/>
       <c r="T113" s="35">
         <v>159</v>
       </c>
     </row>
     <row r="114" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I114" s="53"/>
+      <c r="I114" s="52"/>
       <c r="T114" s="35">
         <v>160</v>
       </c>
     </row>
     <row r="115" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I115" s="53"/>
+      <c r="I115" s="52"/>
       <c r="T115" s="35">
         <v>161</v>
       </c>
     </row>
     <row r="116" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I116" s="53"/>
+      <c r="I116" s="52"/>
       <c r="T116" s="35">
         <v>162</v>
       </c>
     </row>
     <row r="117" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I117" s="53"/>
+      <c r="I117" s="52"/>
       <c r="T117" s="35">
         <v>163</v>
       </c>
     </row>
     <row r="118" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I118" s="53"/>
+      <c r="I118" s="52"/>
       <c r="T118" s="35">
         <v>164</v>
       </c>
     </row>
     <row r="119" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I119" s="53"/>
+      <c r="I119" s="52"/>
       <c r="T119" s="35">
         <v>165</v>
       </c>
     </row>
     <row r="120" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I120" s="53"/>
+      <c r="I120" s="52"/>
       <c r="T120" s="35">
         <v>166</v>
       </c>
     </row>
     <row r="121" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I121" s="53"/>
+      <c r="I121" s="52"/>
       <c r="T121" s="35">
         <v>167</v>
       </c>
     </row>
     <row r="122" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I122" s="53"/>
+      <c r="I122" s="52"/>
       <c r="T122" s="35">
         <v>168</v>
       </c>
     </row>
     <row r="123" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I123" s="53"/>
+      <c r="I123" s="52"/>
       <c r="T123" s="35">
         <v>169</v>
       </c>
     </row>
     <row r="124" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I124" s="53"/>
+      <c r="I124" s="52"/>
       <c r="T124" s="35">
         <v>170</v>
       </c>
     </row>
     <row r="125" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I125" s="53"/>
+      <c r="I125" s="52"/>
       <c r="T125" s="35">
         <v>171</v>
       </c>
     </row>
     <row r="126" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I126" s="53"/>
+      <c r="I126" s="52"/>
       <c r="T126" s="35">
         <v>172</v>
       </c>
     </row>
     <row r="127" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I127" s="53"/>
+      <c r="I127" s="52"/>
       <c r="T127" s="35">
         <v>173</v>
       </c>
     </row>
     <row r="128" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I128" s="53"/>
+      <c r="I128" s="52"/>
       <c r="T128" s="35">
         <v>174</v>
       </c>
     </row>
     <row r="129" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I129" s="53"/>
+      <c r="I129" s="52"/>
       <c r="T129" s="35">
         <v>175</v>
       </c>
     </row>
     <row r="130" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I130" s="53"/>
+      <c r="I130" s="52"/>
       <c r="T130" s="35">
         <v>176</v>
       </c>
     </row>
     <row r="131" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I131" s="53"/>
+      <c r="I131" s="52"/>
       <c r="T131" s="35">
         <v>177</v>
       </c>
     </row>
     <row r="132" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I132" s="53"/>
+      <c r="I132" s="52"/>
       <c r="T132" s="35">
         <v>178</v>
       </c>
     </row>
     <row r="133" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I133" s="53"/>
+      <c r="I133" s="52"/>
       <c r="T133" s="35">
         <v>179</v>
       </c>
     </row>
     <row r="134" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I134" s="53"/>
+      <c r="I134" s="52"/>
       <c r="T134" s="35">
         <v>180</v>
       </c>
     </row>
     <row r="135" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I135" s="53"/>
+      <c r="I135" s="52"/>
       <c r="T135" s="35">
         <v>181</v>
       </c>
     </row>
     <row r="136" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I136" s="53"/>
+      <c r="I136" s="52"/>
       <c r="T136" s="35">
         <v>182</v>
       </c>
     </row>
     <row r="137" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I137" s="53"/>
+      <c r="I137" s="52"/>
       <c r="T137" s="35">
         <v>183</v>
       </c>
     </row>
     <row r="138" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I138" s="53"/>
+      <c r="I138" s="52"/>
       <c r="T138" s="35">
         <v>184</v>
       </c>
     </row>
     <row r="139" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I139" s="53"/>
+      <c r="I139" s="52"/>
       <c r="T139" s="35">
         <v>185</v>
       </c>
     </row>
     <row r="140" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I140" s="53"/>
+      <c r="I140" s="52"/>
       <c r="T140" s="35">
         <v>186</v>
       </c>
     </row>
     <row r="141" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I141" s="53"/>
+      <c r="I141" s="52"/>
       <c r="T141" s="35">
         <v>187</v>
       </c>
     </row>
     <row r="142" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I142" s="53"/>
+      <c r="I142" s="52"/>
       <c r="T142" s="35">
         <v>188</v>
       </c>
     </row>
     <row r="143" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I143" s="53"/>
+      <c r="I143" s="52"/>
       <c r="T143" s="35">
         <v>189</v>
       </c>
     </row>
     <row r="144" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I144" s="53"/>
+      <c r="I144" s="52"/>
       <c r="T144" s="35">
         <v>190</v>
       </c>
     </row>
     <row r="145" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I145" s="53"/>
+      <c r="I145" s="52"/>
       <c r="T145" s="35">
         <v>191</v>
       </c>
     </row>
     <row r="146" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I146" s="53"/>
+      <c r="I146" s="52"/>
       <c r="T146" s="35">
         <v>192</v>
       </c>
     </row>
     <row r="147" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I147" s="53"/>
+      <c r="I147" s="52"/>
       <c r="T147" s="35">
         <v>193</v>
       </c>
     </row>
     <row r="148" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I148" s="53"/>
+      <c r="I148" s="52"/>
       <c r="T148" s="35">
         <v>194</v>
       </c>
     </row>
     <row r="149" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I149" s="53"/>
+      <c r="I149" s="52"/>
       <c r="T149" s="35">
         <v>195</v>
       </c>
     </row>
     <row r="150" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I150" s="53"/>
+      <c r="I150" s="52"/>
       <c r="T150" s="35">
         <v>196</v>
       </c>
     </row>
     <row r="151" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I151" s="53"/>
+      <c r="I151" s="52"/>
       <c r="T151" s="35">
         <v>197</v>
       </c>
     </row>
     <row r="152" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I152" s="53"/>
+      <c r="I152" s="52"/>
       <c r="T152" s="35">
         <v>198</v>
       </c>
     </row>
     <row r="153" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I153" s="53"/>
+      <c r="I153" s="52"/>
       <c r="T153" s="35">
         <v>199</v>
       </c>
     </row>
     <row r="154" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I154" s="53"/>
+      <c r="I154" s="52"/>
       <c r="T154" s="35">
         <v>200</v>
       </c>
     </row>
     <row r="155" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I155" s="53"/>
+      <c r="I155" s="52"/>
       <c r="T155" s="35">
         <v>201</v>
       </c>
     </row>
     <row r="156" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I156" s="53"/>
+      <c r="I156" s="52"/>
       <c r="T156" s="35">
         <v>202</v>
       </c>
     </row>
     <row r="157" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I157" s="53"/>
+      <c r="I157" s="52"/>
       <c r="T157" s="35">
         <v>203</v>
       </c>
     </row>
     <row r="158" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I158" s="53"/>
+      <c r="I158" s="52"/>
       <c r="T158" s="35">
         <v>204</v>
       </c>
     </row>
     <row r="159" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I159" s="53"/>
+      <c r="I159" s="52"/>
       <c r="T159" s="35">
         <v>205</v>
       </c>
     </row>
     <row r="160" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I160" s="53"/>
+      <c r="I160" s="52"/>
       <c r="T160" s="35">
         <v>206</v>
       </c>
     </row>
     <row r="161" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I161" s="53"/>
+      <c r="I161" s="52"/>
       <c r="T161" s="35">
         <v>207</v>
       </c>
     </row>
     <row r="162" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I162" s="53"/>
+      <c r="I162" s="52"/>
       <c r="T162" s="35">
         <v>208</v>
       </c>
     </row>
     <row r="163" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I163" s="53"/>
+      <c r="I163" s="52"/>
       <c r="T163" s="35">
         <v>209</v>
       </c>
     </row>
     <row r="164" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I164" s="53"/>
+      <c r="I164" s="52"/>
       <c r="T164" s="35">
         <v>210</v>
       </c>
     </row>
     <row r="165" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I165" s="53"/>
+      <c r="I165" s="52"/>
       <c r="T165" s="35">
         <v>211</v>
       </c>
     </row>
     <row r="166" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I166" s="53"/>
+      <c r="I166" s="52"/>
       <c r="T166" s="35">
         <v>212</v>
       </c>
     </row>
     <row r="167" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I167" s="53"/>
+      <c r="I167" s="52"/>
       <c r="T167" s="35">
         <v>213</v>
       </c>
     </row>
     <row r="168" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I168" s="53"/>
+      <c r="I168" s="52"/>
       <c r="T168" s="35">
         <v>214</v>
       </c>
     </row>
     <row r="169" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I169" s="53"/>
+      <c r="I169" s="52"/>
       <c r="T169" s="35">
         <v>215</v>
       </c>
     </row>
     <row r="170" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I170" s="53"/>
+      <c r="I170" s="52"/>
       <c r="T170" s="35">
         <v>216</v>
       </c>
     </row>
     <row r="171" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I171" s="53"/>
+      <c r="I171" s="52"/>
       <c r="T171" s="35">
         <v>217</v>
       </c>
     </row>
     <row r="172" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I172" s="53"/>
+      <c r="I172" s="52"/>
       <c r="T172" s="35">
         <v>218</v>
       </c>
     </row>
     <row r="173" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I173" s="53"/>
+      <c r="I173" s="52"/>
       <c r="T173" s="35">
         <v>219</v>
       </c>
     </row>
     <row r="174" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I174" s="53"/>
+      <c r="I174" s="52"/>
       <c r="T174" s="35">
         <v>220</v>
       </c>
     </row>
     <row r="175" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I175" s="53"/>
+      <c r="I175" s="52"/>
       <c r="T175" s="35">
         <v>221</v>
       </c>
     </row>
     <row r="176" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I176" s="53"/>
+      <c r="I176" s="52"/>
       <c r="T176" s="35">
         <v>222</v>
       </c>
     </row>
     <row r="177" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I177" s="53"/>
+      <c r="I177" s="52"/>
       <c r="T177" s="35">
         <v>223</v>
       </c>
     </row>
     <row r="178" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I178" s="53"/>
+      <c r="I178" s="52"/>
       <c r="T178" s="35">
         <v>224</v>
       </c>
     </row>
     <row r="179" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I179" s="53"/>
+      <c r="I179" s="52"/>
       <c r="T179" s="35">
         <v>225</v>
       </c>
     </row>
     <row r="180" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I180" s="53"/>
+      <c r="I180" s="52"/>
       <c r="T180" s="35">
         <v>226</v>
       </c>
     </row>
     <row r="181" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I181" s="53"/>
+      <c r="I181" s="52"/>
       <c r="T181" s="35">
         <v>227</v>
       </c>
     </row>
     <row r="182" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I182" s="53"/>
+      <c r="I182" s="52"/>
       <c r="T182" s="35">
         <v>228</v>
       </c>
     </row>
     <row r="183" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I183" s="53"/>
+      <c r="I183" s="52"/>
       <c r="T183" s="35">
         <v>229</v>
       </c>
     </row>
     <row r="184" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I184" s="53"/>
+      <c r="I184" s="52"/>
       <c r="T184" s="35">
         <v>230</v>
       </c>
     </row>
     <row r="185" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I185" s="53"/>
+      <c r="I185" s="52"/>
       <c r="T185" s="35">
         <v>231</v>
       </c>
     </row>
     <row r="186" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I186" s="53"/>
+      <c r="I186" s="52"/>
       <c r="T186" s="35">
         <v>232</v>
       </c>
     </row>
     <row r="187" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I187" s="53"/>
+      <c r="I187" s="52"/>
       <c r="T187" s="35">
         <v>233</v>
       </c>
     </row>
     <row r="188" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I188" s="53"/>
+      <c r="I188" s="52"/>
       <c r="T188" s="35">
         <v>234</v>
       </c>
     </row>
     <row r="189" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I189" s="53"/>
+      <c r="I189" s="52"/>
       <c r="T189" s="35">
         <v>235</v>
       </c>
     </row>
     <row r="190" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I190" s="53"/>
+      <c r="I190" s="52"/>
       <c r="T190" s="35">
         <v>236</v>
       </c>
     </row>
     <row r="191" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I191" s="53"/>
+      <c r="I191" s="52"/>
       <c r="T191" s="35">
         <v>237</v>
       </c>
     </row>
     <row r="192" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I192" s="53"/>
+      <c r="I192" s="52"/>
       <c r="T192" s="35">
         <v>238</v>
       </c>
     </row>
     <row r="193" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I193" s="53"/>
+      <c r="I193" s="52"/>
       <c r="T193" s="35">
         <v>239</v>
       </c>
     </row>
     <row r="194" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I194" s="53"/>
+      <c r="I194" s="52"/>
       <c r="T194" s="35">
         <v>240</v>
       </c>
     </row>
     <row r="195" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I195" s="53"/>
+      <c r="I195" s="52"/>
       <c r="T195" s="35">
         <v>241</v>
       </c>
     </row>
     <row r="196" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I196" s="53"/>
+      <c r="I196" s="52"/>
       <c r="T196" s="35">
         <v>242</v>
       </c>
     </row>
     <row r="197" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I197" s="53"/>
+      <c r="I197" s="52"/>
       <c r="T197" s="35">
         <v>243</v>
       </c>
     </row>
     <row r="198" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I198" s="53"/>
+      <c r="I198" s="52"/>
       <c r="T198" s="35">
         <v>244</v>
       </c>
     </row>
     <row r="199" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I199" s="53"/>
+      <c r="I199" s="52"/>
       <c r="T199" s="35">
         <v>245</v>
       </c>
     </row>
     <row r="200" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I200" s="53"/>
+      <c r="I200" s="52"/>
       <c r="T200" s="35">
         <v>246</v>
       </c>
     </row>
     <row r="201" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I201" s="53"/>
+      <c r="I201" s="52"/>
       <c r="T201" s="35">
         <v>247</v>
       </c>
     </row>
     <row r="202" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I202" s="53"/>
+      <c r="I202" s="52"/>
       <c r="T202" s="35">
         <v>248</v>
       </c>
     </row>
     <row r="203" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I203" s="53"/>
+      <c r="I203" s="52"/>
       <c r="T203" s="35">
         <v>249</v>
       </c>
     </row>
     <row r="204" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I204" s="53"/>
+      <c r="I204" s="52"/>
       <c r="T204" s="35">
         <v>250</v>
       </c>
     </row>
     <row r="205" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I205" s="53"/>
+      <c r="I205" s="52"/>
       <c r="T205" s="35">
         <v>251</v>
       </c>
     </row>
     <row r="206" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I206" s="53"/>
+      <c r="I206" s="52"/>
       <c r="T206" s="35">
         <v>252</v>
       </c>
     </row>
     <row r="207" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I207" s="53"/>
+      <c r="I207" s="52"/>
       <c r="T207" s="35">
         <v>253</v>
       </c>
     </row>
     <row r="208" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I208" s="53"/>
+      <c r="I208" s="52"/>
       <c r="T208" s="35">
         <v>254</v>
       </c>
     </row>
     <row r="209" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I209" s="53"/>
+      <c r="I209" s="52"/>
       <c r="T209" s="35">
         <v>255</v>
       </c>
     </row>
     <row r="210" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I210" s="53"/>
+      <c r="I210" s="52"/>
       <c r="T210" s="35">
         <v>256</v>
       </c>
     </row>
     <row r="211" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I211" s="53"/>
+      <c r="I211" s="52"/>
       <c r="T211" s="35">
         <v>257</v>
       </c>
     </row>
     <row r="212" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I212" s="53"/>
+      <c r="I212" s="52"/>
       <c r="T212" s="35">
         <v>258</v>
       </c>
     </row>
     <row r="213" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I213" s="53"/>
+      <c r="I213" s="52"/>
       <c r="T213" s="35">
         <v>259</v>
       </c>
     </row>
     <row r="214" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I214" s="53"/>
+      <c r="I214" s="52"/>
       <c r="T214" s="35">
         <v>260</v>
       </c>
     </row>
     <row r="215" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I215" s="53"/>
+      <c r="I215" s="52"/>
       <c r="T215" s="35">
         <v>261</v>
       </c>
     </row>
     <row r="216" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I216" s="53"/>
+      <c r="I216" s="52"/>
       <c r="T216" s="35">
         <v>262</v>
       </c>
     </row>
     <row r="217" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I217" s="53"/>
+      <c r="I217" s="52"/>
       <c r="T217" s="35">
         <v>263</v>
       </c>
     </row>
     <row r="218" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I218" s="53"/>
+      <c r="I218" s="52"/>
       <c r="T218" s="35">
         <v>264</v>
       </c>
     </row>
     <row r="219" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I219" s="53"/>
+      <c r="I219" s="52"/>
       <c r="T219" s="35">
         <v>265</v>
       </c>
     </row>
     <row r="220" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I220" s="53"/>
+      <c r="I220" s="52"/>
       <c r="T220" s="35">
         <v>266</v>
       </c>
     </row>
     <row r="221" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I221" s="53"/>
+      <c r="I221" s="52"/>
       <c r="T221" s="35">
         <v>267</v>
       </c>
     </row>
     <row r="222" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I222" s="53"/>
+      <c r="I222" s="52"/>
       <c r="T222" s="35">
         <v>268</v>
       </c>
     </row>
     <row r="223" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I223" s="53"/>
+      <c r="I223" s="52"/>
       <c r="T223" s="35">
         <v>269</v>
       </c>
     </row>
     <row r="224" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I224" s="53"/>
+      <c r="I224" s="52"/>
       <c r="T224" s="35">
         <v>270</v>
       </c>
     </row>
     <row r="225" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I225" s="53"/>
+      <c r="I225" s="52"/>
       <c r="T225" s="35">
         <v>271</v>
       </c>
     </row>
     <row r="226" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I226" s="53"/>
+      <c r="I226" s="52"/>
       <c r="T226" s="35">
         <v>272</v>
       </c>
     </row>
     <row r="227" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I227" s="53"/>
+      <c r="I227" s="52"/>
       <c r="T227" s="35">
         <v>273</v>
       </c>
     </row>
     <row r="228" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I228" s="53"/>
+      <c r="I228" s="52"/>
       <c r="T228" s="35">
         <v>274</v>
       </c>
     </row>
     <row r="229" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I229" s="53"/>
+      <c r="I229" s="52"/>
       <c r="T229" s="35">
         <v>275</v>
       </c>
     </row>
     <row r="230" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I230" s="53"/>
+      <c r="I230" s="52"/>
       <c r="T230" s="35">
         <v>276</v>
       </c>
     </row>
     <row r="231" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I231" s="53"/>
+      <c r="I231" s="52"/>
       <c r="T231" s="35">
         <v>277</v>
       </c>
     </row>
     <row r="232" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I232" s="53"/>
+      <c r="I232" s="52"/>
       <c r="T232" s="35">
         <v>278</v>
       </c>
     </row>
     <row r="233" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I233" s="53"/>
+      <c r="I233" s="52"/>
       <c r="T233" s="35">
         <v>279</v>
       </c>
     </row>
     <row r="234" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I234" s="53"/>
+      <c r="I234" s="52"/>
       <c r="T234" s="35">
         <v>280</v>
       </c>
     </row>
     <row r="235" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I235" s="53"/>
+      <c r="I235" s="52"/>
       <c r="T235" s="35">
         <v>281</v>
       </c>
     </row>
     <row r="236" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I236" s="53"/>
+      <c r="I236" s="52"/>
       <c r="T236" s="35">
         <v>282</v>
       </c>
     </row>
     <row r="237" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I237" s="53"/>
+      <c r="I237" s="52"/>
       <c r="T237" s="35">
         <v>283</v>
       </c>
     </row>
     <row r="238" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I238" s="53"/>
+      <c r="I238" s="52"/>
       <c r="T238" s="35">
         <v>284</v>
       </c>
     </row>
     <row r="239" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I239" s="53"/>
+      <c r="I239" s="52"/>
       <c r="T239" s="35">
         <v>285</v>
       </c>
     </row>
     <row r="240" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I240" s="53"/>
+      <c r="I240" s="52"/>
       <c r="T240" s="35">
         <v>286</v>
       </c>
     </row>
     <row r="241" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I241" s="53"/>
+      <c r="I241" s="52"/>
       <c r="T241" s="35">
         <v>287</v>
       </c>
     </row>
     <row r="242" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I242" s="53"/>
+      <c r="I242" s="52"/>
       <c r="T242" s="35">
         <v>288</v>
       </c>
     </row>
     <row r="243" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I243" s="53"/>
+      <c r="I243" s="52"/>
       <c r="T243" s="35">
         <v>289</v>
       </c>
     </row>
     <row r="244" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I244" s="53"/>
+      <c r="I244" s="52"/>
       <c r="T244" s="35">
         <v>290</v>
       </c>
     </row>
     <row r="245" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I245" s="53"/>
+      <c r="I245" s="52"/>
       <c r="T245" s="35">
         <v>291</v>
       </c>
     </row>
     <row r="246" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I246" s="53"/>
+      <c r="I246" s="52"/>
       <c r="T246" s="35">
         <v>292</v>
       </c>
     </row>
     <row r="247" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I247" s="53"/>
+      <c r="I247" s="52"/>
       <c r="T247" s="35">
         <v>293</v>
       </c>
     </row>
     <row r="248" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I248" s="53"/>
+      <c r="I248" s="52"/>
       <c r="T248" s="35">
         <v>294</v>
       </c>
     </row>
     <row r="249" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I249" s="53"/>
+      <c r="I249" s="52"/>
       <c r="T249" s="35">
         <v>295</v>
       </c>
     </row>
     <row r="250" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I250" s="53"/>
+      <c r="I250" s="52"/>
       <c r="T250" s="35">
         <v>296</v>
       </c>
     </row>
     <row r="251" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I251" s="53"/>
+      <c r="I251" s="52"/>
       <c r="T251" s="35">
         <v>297</v>
       </c>
     </row>
     <row r="252" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I252" s="53"/>
+      <c r="I252" s="52"/>
       <c r="T252" s="35">
         <v>298</v>
       </c>
     </row>
     <row r="253" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I253" s="53"/>
+      <c r="I253" s="52"/>
       <c r="T253" s="35">
         <v>299</v>
       </c>
     </row>
     <row r="254" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I254" s="53"/>
+      <c r="I254" s="52"/>
       <c r="T254" s="35">
         <v>300</v>
       </c>
     </row>
     <row r="255" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I255" s="53"/>
+      <c r="I255" s="52"/>
       <c r="T255" s="35">
         <v>301</v>
       </c>
     </row>
     <row r="256" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I256" s="53"/>
+      <c r="I256" s="52"/>
       <c r="T256" s="35">
         <v>302</v>
       </c>
     </row>
     <row r="257" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I257" s="53"/>
+      <c r="I257" s="52"/>
       <c r="T257" s="35">
         <v>303</v>
       </c>
     </row>
     <row r="258" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I258" s="53"/>
+      <c r="I258" s="52"/>
       <c r="T258" s="35">
         <v>304</v>
       </c>
     </row>
     <row r="259" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I259" s="53"/>
+      <c r="I259" s="52"/>
       <c r="T259" s="35">
         <v>305</v>
       </c>
     </row>
     <row r="260" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I260" s="53"/>
+      <c r="I260" s="52"/>
       <c r="T260" s="35">
         <v>306</v>
       </c>
     </row>
     <row r="261" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I261" s="53"/>
+      <c r="I261" s="52"/>
       <c r="T261" s="35">
         <v>307</v>
       </c>
     </row>
     <row r="262" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I262" s="53"/>
+      <c r="I262" s="52"/>
     </row>
     <row r="263" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I263" s="53"/>
+      <c r="I263" s="52"/>
     </row>
     <row r="264" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I264" s="53"/>
+      <c r="I264" s="52"/>
     </row>
     <row r="265" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I265" s="53"/>
+      <c r="I265" s="52"/>
     </row>
     <row r="266" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I266" s="53"/>
+      <c r="I266" s="52"/>
     </row>
     <row r="267" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I267" s="53"/>
+      <c r="I267" s="52"/>
     </row>
     <row r="268" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I268" s="53"/>
+      <c r="I268" s="52"/>
     </row>
     <row r="269" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I269" s="53"/>
+      <c r="I269" s="52"/>
     </row>
     <row r="270" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I270" s="53"/>
+      <c r="I270" s="52"/>
     </row>
     <row r="271" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I271" s="53"/>
+      <c r="I271" s="52"/>
     </row>
     <row r="272" spans="9:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I272" s="53"/>
+      <c r="I272" s="52"/>
     </row>
     <row r="273" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I273" s="53"/>
+      <c r="I273" s="52"/>
     </row>
     <row r="274" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I274" s="53"/>
+      <c r="I274" s="52"/>
     </row>
     <row r="275" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I275" s="53"/>
+      <c r="I275" s="52"/>
     </row>
     <row r="276" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I276" s="53"/>
+      <c r="I276" s="52"/>
     </row>
     <row r="277" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I277" s="53"/>
+      <c r="I277" s="52"/>
     </row>
     <row r="278" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I278" s="53"/>
+      <c r="I278" s="52"/>
     </row>
     <row r="279" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I279" s="53"/>
+      <c r="I279" s="52"/>
     </row>
     <row r="280" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I280" s="53"/>
+      <c r="I280" s="52"/>
     </row>
     <row r="281" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I281" s="53"/>
+      <c r="I281" s="52"/>
     </row>
     <row r="282" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I282" s="53"/>
+      <c r="I282" s="52"/>
     </row>
     <row r="283" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I283" s="53"/>
+      <c r="I283" s="52"/>
     </row>
     <row r="284" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I284" s="53"/>
+      <c r="I284" s="52"/>
     </row>
     <row r="285" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I285" s="53"/>
+      <c r="I285" s="52"/>
     </row>
     <row r="286" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I286" s="53"/>
+      <c r="I286" s="52"/>
     </row>
     <row r="287" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I287" s="53"/>
+      <c r="I287" s="52"/>
     </row>
     <row r="288" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I288" s="53"/>
+      <c r="I288" s="52"/>
     </row>
     <row r="289" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I289" s="53"/>
+      <c r="I289" s="52"/>
     </row>
     <row r="290" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I290" s="53"/>
+      <c r="I290" s="52"/>
     </row>
     <row r="291" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I291" s="53"/>
+      <c r="I291" s="52"/>
     </row>
     <row r="292" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I292" s="53"/>
+      <c r="I292" s="52"/>
     </row>
     <row r="293" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I293" s="53"/>
+      <c r="I293" s="52"/>
     </row>
     <row r="294" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I294" s="53"/>
+      <c r="I294" s="52"/>
     </row>
     <row r="295" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I295" s="53"/>
+      <c r="I295" s="52"/>
     </row>
     <row r="296" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I296" s="53"/>
+      <c r="I296" s="52"/>
     </row>
     <row r="297" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I297" s="53"/>
+      <c r="I297" s="52"/>
     </row>
     <row r="298" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I298" s="53"/>
+      <c r="I298" s="52"/>
     </row>
     <row r="299" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I299" s="53"/>
+      <c r="I299" s="52"/>
     </row>
     <row r="300" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I300" s="53"/>
+      <c r="I300" s="52"/>
     </row>
     <row r="301" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I301" s="53"/>
+      <c r="I301" s="52"/>
     </row>
     <row r="302" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I302" s="53"/>
+      <c r="I302" s="52"/>
     </row>
     <row r="303" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I303" s="53"/>
+      <c r="I303" s="52"/>
     </row>
     <row r="304" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I304" s="53"/>
+      <c r="I304" s="52"/>
     </row>
     <row r="305" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I305" s="53"/>
+      <c r="I305" s="52"/>
     </row>
     <row r="306" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I306" s="53"/>
+      <c r="I306" s="52"/>
     </row>
     <row r="307" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I307" s="53"/>
+      <c r="I307" s="52"/>
     </row>
     <row r="308" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I308" s="53"/>
+      <c r="I308" s="52"/>
     </row>
     <row r="309" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I309" s="53"/>
+      <c r="I309" s="52"/>
     </row>
     <row r="310" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I310" s="53"/>
+      <c r="I310" s="52"/>
     </row>
     <row r="311" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I311" s="53"/>
+      <c r="I311" s="52"/>
     </row>
     <row r="312" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I312" s="53"/>
+      <c r="I312" s="52"/>
     </row>
     <row r="313" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I313" s="53"/>
+      <c r="I313" s="52"/>
     </row>
     <row r="314" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I314" s="53"/>
+      <c r="I314" s="52"/>
     </row>
     <row r="315" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I315" s="53"/>
+      <c r="I315" s="52"/>
     </row>
     <row r="316" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I316" s="53"/>
+      <c r="I316" s="52"/>
     </row>
     <row r="317" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I317" s="53"/>
+      <c r="I317" s="52"/>
     </row>
     <row r="318" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I318" s="53"/>
+      <c r="I318" s="52"/>
     </row>
     <row r="319" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I319" s="53"/>
+      <c r="I319" s="52"/>
     </row>
     <row r="320" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I320" s="53"/>
+      <c r="I320" s="52"/>
     </row>
     <row r="321" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I321" s="53"/>
+      <c r="I321" s="52"/>
     </row>
     <row r="322" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I322" s="53"/>
+      <c r="I322" s="52"/>
     </row>
     <row r="323" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I323" s="53"/>
+      <c r="I323" s="52"/>
     </row>
     <row r="324" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I324" s="53"/>
+      <c r="I324" s="52"/>
     </row>
     <row r="325" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I325" s="53"/>
+      <c r="I325" s="52"/>
     </row>
     <row r="326" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I326" s="53"/>
+      <c r="I326" s="52"/>
     </row>
     <row r="327" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I327" s="53"/>
+      <c r="I327" s="52"/>
     </row>
     <row r="328" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I328" s="53"/>
+      <c r="I328" s="52"/>
     </row>
     <row r="329" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I329" s="53"/>
+      <c r="I329" s="52"/>
     </row>
     <row r="330" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I330" s="53"/>
+      <c r="I330" s="52"/>
     </row>
     <row r="331" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I331" s="53"/>
+      <c r="I331" s="52"/>
     </row>
     <row r="332" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I332" s="53"/>
+      <c r="I332" s="52"/>
     </row>
     <row r="333" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I333" s="53"/>
+      <c r="I333" s="52"/>
     </row>
     <row r="334" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I334" s="53"/>
+      <c r="I334" s="52"/>
     </row>
     <row r="335" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I335" s="53"/>
+      <c r="I335" s="52"/>
     </row>
     <row r="336" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I336" s="53"/>
+      <c r="I336" s="52"/>
     </row>
     <row r="337" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I337" s="53"/>
+      <c r="I337" s="52"/>
     </row>
     <row r="338" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I338" s="53"/>
+      <c r="I338" s="52"/>
     </row>
     <row r="339" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I339" s="53"/>
+      <c r="I339" s="52"/>
     </row>
     <row r="340" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I340" s="53"/>
+      <c r="I340" s="52"/>
     </row>
     <row r="341" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I341" s="53"/>
+      <c r="I341" s="52"/>
     </row>
     <row r="342" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I342" s="53"/>
+      <c r="I342" s="52"/>
     </row>
     <row r="343" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I343" s="53"/>
+      <c r="I343" s="52"/>
     </row>
     <row r="344" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I344" s="53"/>
+      <c r="I344" s="52"/>
     </row>
     <row r="345" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I345" s="53"/>
+      <c r="I345" s="52"/>
     </row>
     <row r="346" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I346" s="53"/>
+      <c r="I346" s="52"/>
     </row>
     <row r="347" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I347" s="53"/>
+      <c r="I347" s="52"/>
     </row>
     <row r="348" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I348" s="53"/>
+      <c r="I348" s="52"/>
     </row>
     <row r="349" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I349" s="53"/>
+      <c r="I349" s="52"/>
     </row>
     <row r="350" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I350" s="53"/>
+      <c r="I350" s="52"/>
     </row>
     <row r="351" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I351" s="53"/>
+      <c r="I351" s="52"/>
     </row>
     <row r="352" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I352" s="53"/>
+      <c r="I352" s="52"/>
     </row>
     <row r="353" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I353" s="53"/>
+      <c r="I353" s="52"/>
     </row>
     <row r="354" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I354" s="53"/>
+      <c r="I354" s="52"/>
     </row>
     <row r="355" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I355" s="53"/>
+      <c r="I355" s="52"/>
     </row>
     <row r="356" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I356" s="53"/>
+      <c r="I356" s="52"/>
     </row>
     <row r="357" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I357" s="53"/>
+      <c r="I357" s="52"/>
     </row>
     <row r="358" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I358" s="53"/>
+      <c r="I358" s="52"/>
     </row>
     <row r="359" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I359" s="53"/>
+      <c r="I359" s="52"/>
     </row>
     <row r="360" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I360" s="53"/>
+      <c r="I360" s="52"/>
     </row>
     <row r="361" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I361" s="53"/>
+      <c r="I361" s="52"/>
     </row>
     <row r="362" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I362" s="53"/>
+      <c r="I362" s="52"/>
     </row>
     <row r="363" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I363" s="53"/>
+      <c r="I363" s="52"/>
     </row>
     <row r="364" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I364" s="53"/>
+      <c r="I364" s="52"/>
     </row>
     <row r="365" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I365" s="53"/>
+      <c r="I365" s="52"/>
     </row>
     <row r="366" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I366" s="53"/>
+      <c r="I366" s="52"/>
     </row>
     <row r="367" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I367" s="53"/>
+      <c r="I367" s="52"/>
     </row>
     <row r="368" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I368" s="53"/>
+      <c r="I368" s="52"/>
     </row>
     <row r="369" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I369" s="53"/>
+      <c r="I369" s="52"/>
     </row>
     <row r="370" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I370" s="53"/>
+      <c r="I370" s="52"/>
     </row>
     <row r="371" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I371" s="53"/>
+      <c r="I371" s="52"/>
     </row>
     <row r="372" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I372" s="53"/>
+      <c r="I372" s="52"/>
     </row>
     <row r="373" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I373" s="53"/>
+      <c r="I373" s="52"/>
     </row>
     <row r="374" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I374" s="53"/>
+      <c r="I374" s="52"/>
     </row>
     <row r="375" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I375" s="53"/>
+      <c r="I375" s="52"/>
     </row>
     <row r="376" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I376" s="53"/>
+      <c r="I376" s="52"/>
     </row>
     <row r="377" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I377" s="53"/>
+      <c r="I377" s="52"/>
     </row>
     <row r="378" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I378" s="53"/>
+      <c r="I378" s="52"/>
     </row>
     <row r="379" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I379" s="53"/>
+      <c r="I379" s="52"/>
     </row>
     <row r="380" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I380" s="53"/>
+      <c r="I380" s="52"/>
     </row>
     <row r="381" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I381" s="53"/>
+      <c r="I381" s="52"/>
     </row>
     <row r="382" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I382" s="53"/>
+      <c r="I382" s="52"/>
     </row>
     <row r="383" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I383" s="53"/>
+      <c r="I383" s="52"/>
     </row>
     <row r="384" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I384" s="53"/>
+      <c r="I384" s="52"/>
     </row>
     <row r="385" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I385" s="53"/>
+      <c r="I385" s="52"/>
     </row>
     <row r="386" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I386" s="53"/>
+      <c r="I386" s="52"/>
     </row>
     <row r="387" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I387" s="53"/>
+      <c r="I387" s="52"/>
     </row>
     <row r="388" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I388" s="53"/>
+      <c r="I388" s="52"/>
     </row>
     <row r="389" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I389" s="53"/>
+      <c r="I389" s="52"/>
     </row>
     <row r="390" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I390" s="53"/>
+      <c r="I390" s="52"/>
     </row>
     <row r="391" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I391" s="53"/>
+      <c r="I391" s="52"/>
     </row>
     <row r="392" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I392" s="53"/>
+      <c r="I392" s="52"/>
     </row>
     <row r="393" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I393" s="53"/>
+      <c r="I393" s="52"/>
     </row>
     <row r="394" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I394" s="53"/>
+      <c r="I394" s="52"/>
     </row>
     <row r="395" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I395" s="53"/>
+      <c r="I395" s="52"/>
     </row>
     <row r="396" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I396" s="53"/>
+      <c r="I396" s="52"/>
     </row>
     <row r="397" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I397" s="53"/>
+      <c r="I397" s="52"/>
     </row>
     <row r="398" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I398" s="53"/>
+      <c r="I398" s="52"/>
     </row>
     <row r="399" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I399" s="53"/>
+      <c r="I399" s="52"/>
     </row>
     <row r="400" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I400" s="53"/>
+      <c r="I400" s="52"/>
     </row>
     <row r="401" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I401" s="53"/>
+      <c r="I401" s="52"/>
     </row>
     <row r="402" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I402" s="53"/>
+      <c r="I402" s="52"/>
     </row>
     <row r="403" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I403" s="53"/>
+      <c r="I403" s="52"/>
     </row>
     <row r="404" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I404" s="53"/>
+      <c r="I404" s="52"/>
     </row>
     <row r="405" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I405" s="53"/>
+      <c r="I405" s="52"/>
     </row>
     <row r="406" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I406" s="53"/>
+      <c r="I406" s="52"/>
     </row>
     <row r="407" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I407" s="53"/>
+      <c r="I407" s="52"/>
     </row>
     <row r="408" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I408" s="53"/>
+      <c r="I408" s="52"/>
     </row>
     <row r="409" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I409" s="53"/>
+      <c r="I409" s="52"/>
     </row>
     <row r="410" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I410" s="53"/>
+      <c r="I410" s="52"/>
     </row>
     <row r="411" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I411" s="53"/>
+      <c r="I411" s="52"/>
     </row>
     <row r="412" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I412" s="53"/>
+      <c r="I412" s="52"/>
     </row>
     <row r="413" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I413" s="53"/>
+      <c r="I413" s="52"/>
     </row>
     <row r="414" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I414" s="53"/>
+      <c r="I414" s="52"/>
     </row>
     <row r="415" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I415" s="53"/>
+      <c r="I415" s="52"/>
     </row>
     <row r="416" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I416" s="53"/>
+      <c r="I416" s="52"/>
     </row>
     <row r="417" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I417" s="53"/>
+      <c r="I417" s="52"/>
     </row>
     <row r="418" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I418" s="53"/>
+      <c r="I418" s="52"/>
     </row>
     <row r="419" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I419" s="53"/>
+      <c r="I419" s="52"/>
     </row>
     <row r="420" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I420" s="53"/>
+      <c r="I420" s="52"/>
     </row>
     <row r="421" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I421" s="53"/>
+      <c r="I421" s="52"/>
     </row>
     <row r="422" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I422" s="53"/>
+      <c r="I422" s="52"/>
     </row>
     <row r="423" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I423" s="53"/>
+      <c r="I423" s="52"/>
     </row>
     <row r="424" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I424" s="53"/>
+      <c r="I424" s="52"/>
     </row>
     <row r="425" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I425" s="53"/>
+      <c r="I425" s="52"/>
     </row>
     <row r="426" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I426" s="53"/>
+      <c r="I426" s="52"/>
     </row>
     <row r="427" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I427" s="53"/>
+      <c r="I427" s="52"/>
     </row>
     <row r="428" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I428" s="53"/>
+      <c r="I428" s="52"/>
     </row>
     <row r="429" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I429" s="53"/>
+      <c r="I429" s="52"/>
     </row>
     <row r="430" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I430" s="53"/>
+      <c r="I430" s="52"/>
     </row>
     <row r="431" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I431" s="53"/>
+      <c r="I431" s="52"/>
     </row>
     <row r="432" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I432" s="53"/>
+      <c r="I432" s="52"/>
     </row>
     <row r="433" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I433" s="53"/>
+      <c r="I433" s="52"/>
     </row>
     <row r="434" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I434" s="53"/>
+      <c r="I434" s="52"/>
     </row>
     <row r="435" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I435" s="53"/>
+      <c r="I435" s="52"/>
     </row>
     <row r="436" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I436" s="53"/>
+      <c r="I436" s="52"/>
     </row>
     <row r="437" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I437" s="53"/>
+      <c r="I437" s="52"/>
     </row>
     <row r="438" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I438" s="53"/>
+      <c r="I438" s="52"/>
     </row>
     <row r="439" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I439" s="53"/>
+      <c r="I439" s="52"/>
     </row>
     <row r="440" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I440" s="53"/>
+      <c r="I440" s="52"/>
     </row>
     <row r="441" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I441" s="53"/>
+      <c r="I441" s="52"/>
     </row>
     <row r="442" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I442" s="53"/>
+      <c r="I442" s="52"/>
     </row>
     <row r="443" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I443" s="53"/>
+      <c r="I443" s="52"/>
     </row>
     <row r="444" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I444" s="53"/>
+      <c r="I444" s="52"/>
     </row>
     <row r="445" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I445" s="53"/>
+      <c r="I445" s="52"/>
     </row>
     <row r="446" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I446" s="53"/>
+      <c r="I446" s="52"/>
     </row>
     <row r="447" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I447" s="53"/>
+      <c r="I447" s="52"/>
     </row>
     <row r="448" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I448" s="53"/>
+      <c r="I448" s="52"/>
     </row>
     <row r="449" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I449" s="53"/>
+      <c r="I449" s="52"/>
     </row>
     <row r="450" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I450" s="53"/>
+      <c r="I450" s="52"/>
     </row>
     <row r="451" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I451" s="53"/>
+      <c r="I451" s="52"/>
     </row>
     <row r="452" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I452" s="53"/>
+      <c r="I452" s="52"/>
     </row>
     <row r="453" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I453" s="53"/>
+      <c r="I453" s="52"/>
     </row>
     <row r="454" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I454" s="53"/>
+      <c r="I454" s="52"/>
     </row>
     <row r="455" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I455" s="53"/>
+      <c r="I455" s="52"/>
     </row>
     <row r="456" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I456" s="53"/>
+      <c r="I456" s="52"/>
     </row>
     <row r="457" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I457" s="53"/>
+      <c r="I457" s="52"/>
     </row>
     <row r="458" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I458" s="53"/>
+      <c r="I458" s="52"/>
     </row>
     <row r="459" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I459" s="53"/>
+      <c r="I459" s="52"/>
     </row>
     <row r="460" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I460" s="53"/>
+      <c r="I460" s="52"/>
     </row>
     <row r="461" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I461" s="53"/>
+      <c r="I461" s="52"/>
     </row>
     <row r="462" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I462" s="53"/>
+      <c r="I462" s="52"/>
     </row>
     <row r="463" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I463" s="53"/>
+      <c r="I463" s="52"/>
     </row>
     <row r="464" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I464" s="53"/>
+      <c r="I464" s="52"/>
     </row>
     <row r="465" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I465" s="53"/>
+      <c r="I465" s="52"/>
     </row>
     <row r="466" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I466" s="53"/>
+      <c r="I466" s="52"/>
     </row>
     <row r="467" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I467" s="53"/>
+      <c r="I467" s="52"/>
     </row>
     <row r="468" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I468" s="53"/>
+      <c r="I468" s="52"/>
     </row>
     <row r="469" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I469" s="53"/>
+      <c r="I469" s="52"/>
     </row>
     <row r="470" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I470" s="53"/>
+      <c r="I470" s="52"/>
     </row>
     <row r="471" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I471" s="53"/>
+      <c r="I471" s="52"/>
     </row>
     <row r="472" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I472" s="53"/>
+      <c r="I472" s="52"/>
     </row>
     <row r="473" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I473" s="53"/>
+      <c r="I473" s="52"/>
     </row>
     <row r="474" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I474" s="53"/>
+      <c r="I474" s="52"/>
     </row>
     <row r="475" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I475" s="53"/>
+      <c r="I475" s="52"/>
     </row>
     <row r="476" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I476" s="53"/>
+      <c r="I476" s="52"/>
     </row>
     <row r="477" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I477" s="53"/>
+      <c r="I477" s="52"/>
     </row>
     <row r="478" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I478" s="53"/>
+      <c r="I478" s="52"/>
     </row>
     <row r="479" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I479" s="53"/>
+      <c r="I479" s="52"/>
     </row>
     <row r="480" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I480" s="53"/>
+      <c r="I480" s="52"/>
     </row>
     <row r="481" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I481" s="53"/>
+      <c r="I481" s="52"/>
     </row>
     <row r="482" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I482" s="53"/>
+      <c r="I482" s="52"/>
     </row>
     <row r="483" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I483" s="53"/>
+      <c r="I483" s="52"/>
     </row>
     <row r="484" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I484" s="53"/>
+      <c r="I484" s="52"/>
     </row>
     <row r="485" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I485" s="53"/>
+      <c r="I485" s="52"/>
     </row>
     <row r="486" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I486" s="53"/>
+      <c r="I486" s="52"/>
     </row>
     <row r="487" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I487" s="53"/>
+      <c r="I487" s="52"/>
     </row>
     <row r="488" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I488" s="53"/>
+      <c r="I488" s="52"/>
     </row>
     <row r="489" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I489" s="53"/>
+      <c r="I489" s="52"/>
     </row>
     <row r="490" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I490" s="53"/>
+      <c r="I490" s="52"/>
     </row>
     <row r="491" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I491" s="53"/>
+      <c r="I491" s="52"/>
     </row>
     <row r="492" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I492" s="53"/>
+      <c r="I492" s="52"/>
     </row>
     <row r="493" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I493" s="53"/>
+      <c r="I493" s="52"/>
     </row>
     <row r="494" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I494" s="53"/>
+      <c r="I494" s="52"/>
     </row>
     <row r="495" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I495" s="53"/>
+      <c r="I495" s="52"/>
     </row>
     <row r="496" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I496" s="53"/>
+      <c r="I496" s="52"/>
     </row>
     <row r="497" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I497" s="53"/>
+      <c r="I497" s="52"/>
     </row>
     <row r="498" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I498" s="53"/>
+      <c r="I498" s="52"/>
     </row>
     <row r="499" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I499" s="53"/>
+      <c r="I499" s="52"/>
     </row>
     <row r="500" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I500" s="53"/>
+      <c r="I500" s="52"/>
     </row>
     <row r="501" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I501" s="53"/>
+      <c r="I501" s="52"/>
     </row>
     <row r="502" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I502" s="53"/>
+      <c r="I502" s="52"/>
     </row>
     <row r="503" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I503" s="53"/>
+      <c r="I503" s="52"/>
     </row>
     <row r="504" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I504" s="53"/>
+      <c r="I504" s="52"/>
     </row>
     <row r="505" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I505" s="53"/>
+      <c r="I505" s="52"/>
     </row>
     <row r="506" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I506" s="53"/>
+      <c r="I506" s="52"/>
     </row>
     <row r="507" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I507" s="53"/>
+      <c r="I507" s="52"/>
     </row>
     <row r="508" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I508" s="53"/>
+      <c r="I508" s="52"/>
     </row>
     <row r="509" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I509" s="53"/>
+      <c r="I509" s="52"/>
     </row>
     <row r="510" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I510" s="53"/>
+      <c r="I510" s="52"/>
     </row>
     <row r="511" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I511" s="53"/>
+      <c r="I511" s="52"/>
     </row>
     <row r="512" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I512" s="53"/>
+      <c r="I512" s="52"/>
     </row>
     <row r="513" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I513" s="53"/>
+      <c r="I513" s="52"/>
     </row>
     <row r="514" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I514" s="53"/>
+      <c r="I514" s="52"/>
     </row>
     <row r="515" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I515" s="53"/>
+      <c r="I515" s="52"/>
     </row>
     <row r="516" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I516" s="53"/>
+      <c r="I516" s="52"/>
     </row>
     <row r="517" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I517" s="53"/>
+      <c r="I517" s="52"/>
     </row>
     <row r="518" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I518" s="53"/>
+      <c r="I518" s="52"/>
     </row>
     <row r="519" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I519" s="53"/>
+      <c r="I519" s="52"/>
     </row>
     <row r="520" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I520" s="53"/>
+      <c r="I520" s="52"/>
     </row>
     <row r="521" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I521" s="53"/>
+      <c r="I521" s="52"/>
     </row>
     <row r="522" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I522" s="53"/>
+      <c r="I522" s="52"/>
     </row>
     <row r="523" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I523" s="53"/>
+      <c r="I523" s="52"/>
     </row>
     <row r="524" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I524" s="53"/>
+      <c r="I524" s="52"/>
     </row>
     <row r="525" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I525" s="53"/>
+      <c r="I525" s="52"/>
     </row>
     <row r="526" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I526" s="53"/>
+      <c r="I526" s="52"/>
     </row>
     <row r="527" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I527" s="53"/>
+      <c r="I527" s="52"/>
     </row>
     <row r="528" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I528" s="53"/>
+      <c r="I528" s="52"/>
     </row>
     <row r="529" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I529" s="53"/>
+      <c r="I529" s="52"/>
     </row>
     <row r="530" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I530" s="53"/>
+      <c r="I530" s="52"/>
     </row>
     <row r="531" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I531" s="53"/>
+      <c r="I531" s="52"/>
     </row>
     <row r="532" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I532" s="53"/>
+      <c r="I532" s="52"/>
     </row>
     <row r="533" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I533" s="53"/>
+      <c r="I533" s="52"/>
     </row>
     <row r="534" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I534" s="53"/>
+      <c r="I534" s="52"/>
     </row>
     <row r="535" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I535" s="53"/>
+      <c r="I535" s="52"/>
     </row>
     <row r="536" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I536" s="53"/>
+      <c r="I536" s="52"/>
     </row>
     <row r="537" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I537" s="53"/>
+      <c r="I537" s="52"/>
     </row>
     <row r="538" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I538" s="53"/>
+      <c r="I538" s="52"/>
     </row>
     <row r="539" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I539" s="53"/>
+      <c r="I539" s="52"/>
     </row>
     <row r="540" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I540" s="53"/>
+      <c r="I540" s="52"/>
     </row>
     <row r="541" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I541" s="53"/>
+      <c r="I541" s="52"/>
     </row>
     <row r="542" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I542" s="53"/>
+      <c r="I542" s="52"/>
     </row>
     <row r="543" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I543" s="53"/>
+      <c r="I543" s="52"/>
     </row>
     <row r="544" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I544" s="53"/>
+      <c r="I544" s="52"/>
     </row>
     <row r="545" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I545" s="53"/>
+      <c r="I545" s="52"/>
     </row>
     <row r="546" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I546" s="53"/>
+      <c r="I546" s="52"/>
     </row>
     <row r="547" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I547" s="53"/>
+      <c r="I547" s="52"/>
     </row>
     <row r="548" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I548" s="53"/>
+      <c r="I548" s="52"/>
     </row>
     <row r="549" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I549" s="53"/>
+      <c r="I549" s="52"/>
     </row>
     <row r="550" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I550" s="53"/>
+      <c r="I550" s="52"/>
     </row>
     <row r="551" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I551" s="53"/>
+      <c r="I551" s="52"/>
     </row>
     <row r="552" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I552" s="53"/>
+      <c r="I552" s="52"/>
     </row>
     <row r="553" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I553" s="53"/>
+      <c r="I553" s="52"/>
     </row>
     <row r="554" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I554" s="53"/>
+      <c r="I554" s="52"/>
     </row>
     <row r="555" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I555" s="53"/>
+      <c r="I555" s="52"/>
     </row>
     <row r="556" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I556" s="53"/>
+      <c r="I556" s="52"/>
     </row>
     <row r="557" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I557" s="53"/>
+      <c r="I557" s="52"/>
     </row>
     <row r="558" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I558" s="53"/>
+      <c r="I558" s="52"/>
     </row>
     <row r="559" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I559" s="53"/>
+      <c r="I559" s="52"/>
     </row>
     <row r="560" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I560" s="53"/>
+      <c r="I560" s="52"/>
     </row>
     <row r="561" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I561" s="53"/>
+      <c r="I561" s="52"/>
     </row>
     <row r="562" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I562" s="53"/>
+      <c r="I562" s="52"/>
     </row>
     <row r="563" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I563" s="53"/>
+      <c r="I563" s="52"/>
     </row>
     <row r="564" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I564" s="53"/>
+      <c r="I564" s="52"/>
     </row>
     <row r="565" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I565" s="53"/>
+      <c r="I565" s="52"/>
     </row>
     <row r="566" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I566" s="53"/>
+      <c r="I566" s="52"/>
     </row>
     <row r="567" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I567" s="53"/>
+      <c r="I567" s="52"/>
     </row>
     <row r="568" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I568" s="53"/>
+      <c r="I568" s="52"/>
     </row>
     <row r="569" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I569" s="53"/>
+      <c r="I569" s="52"/>
     </row>
     <row r="570" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I570" s="53"/>
+      <c r="I570" s="52"/>
     </row>
     <row r="571" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I571" s="53"/>
+      <c r="I571" s="52"/>
     </row>
     <row r="572" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I572" s="53"/>
+      <c r="I572" s="52"/>
     </row>
     <row r="573" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I573" s="53"/>
+      <c r="I573" s="52"/>
     </row>
     <row r="574" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I574" s="53"/>
+      <c r="I574" s="52"/>
     </row>
     <row r="575" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I575" s="53"/>
+      <c r="I575" s="52"/>
     </row>
     <row r="576" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I576" s="53"/>
+      <c r="I576" s="52"/>
     </row>
     <row r="577" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I577" s="53"/>
+      <c r="I577" s="52"/>
     </row>
     <row r="578" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I578" s="53"/>
+      <c r="I578" s="52"/>
     </row>
     <row r="579" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I579" s="53"/>
+      <c r="I579" s="52"/>
     </row>
     <row r="580" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I580" s="53"/>
+      <c r="I580" s="52"/>
     </row>
     <row r="581" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I581" s="53"/>
+      <c r="I581" s="52"/>
     </row>
     <row r="582" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I582" s="53"/>
+      <c r="I582" s="52"/>
     </row>
     <row r="583" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I583" s="53"/>
+      <c r="I583" s="52"/>
     </row>
     <row r="584" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I584" s="53"/>
+      <c r="I584" s="52"/>
     </row>
     <row r="585" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I585" s="53"/>
+      <c r="I585" s="52"/>
     </row>
     <row r="586" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I586" s="53"/>
+      <c r="I586" s="52"/>
     </row>
     <row r="587" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I587" s="53"/>
+      <c r="I587" s="52"/>
     </row>
     <row r="588" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I588" s="53"/>
+      <c r="I588" s="52"/>
     </row>
     <row r="589" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I589" s="53"/>
+      <c r="I589" s="52"/>
     </row>
     <row r="590" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I590" s="53"/>
+      <c r="I590" s="52"/>
     </row>
     <row r="591" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I591" s="53"/>
+      <c r="I591" s="52"/>
     </row>
     <row r="592" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I592" s="53"/>
+      <c r="I592" s="52"/>
     </row>
     <row r="593" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I593" s="53"/>
+      <c r="I593" s="52"/>
     </row>
     <row r="594" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I594" s="53"/>
+      <c r="I594" s="52"/>
     </row>
     <row r="595" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I595" s="53"/>
+      <c r="I595" s="52"/>
     </row>
     <row r="596" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I596" s="53"/>
+      <c r="I596" s="52"/>
     </row>
     <row r="597" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I597" s="53"/>
+      <c r="I597" s="52"/>
     </row>
     <row r="598" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I598" s="53"/>
+      <c r="I598" s="52"/>
     </row>
     <row r="599" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I599" s="53"/>
+      <c r="I599" s="52"/>
     </row>
     <row r="600" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I600" s="53"/>
+      <c r="I600" s="52"/>
     </row>
     <row r="601" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I601" s="53"/>
+      <c r="I601" s="52"/>
     </row>
     <row r="602" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I602" s="53"/>
+      <c r="I602" s="52"/>
     </row>
     <row r="603" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I603" s="53"/>
+      <c r="I603" s="52"/>
     </row>
     <row r="604" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I604" s="53"/>
+      <c r="I604" s="52"/>
     </row>
     <row r="605" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I605" s="53"/>
+      <c r="I605" s="52"/>
     </row>
     <row r="606" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I606" s="53"/>
+      <c r="I606" s="52"/>
     </row>
     <row r="607" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I607" s="53"/>
+      <c r="I607" s="52"/>
     </row>
     <row r="608" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I608" s="53"/>
+      <c r="I608" s="52"/>
     </row>
     <row r="609" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I609" s="53"/>
+      <c r="I609" s="52"/>
     </row>
     <row r="610" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I610" s="53"/>
+      <c r="I610" s="52"/>
     </row>
     <row r="611" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I611" s="53"/>
+      <c r="I611" s="52"/>
     </row>
     <row r="612" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I612" s="53"/>
+      <c r="I612" s="52"/>
     </row>
     <row r="613" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I613" s="53"/>
+      <c r="I613" s="52"/>
     </row>
     <row r="614" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I614" s="53"/>
+      <c r="I614" s="52"/>
     </row>
     <row r="615" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I615" s="53"/>
+      <c r="I615" s="52"/>
     </row>
     <row r="616" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I616" s="53"/>
+      <c r="I616" s="52"/>
     </row>
     <row r="617" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I617" s="53"/>
+      <c r="I617" s="52"/>
     </row>
     <row r="618" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I618" s="53"/>
+      <c r="I618" s="52"/>
     </row>
     <row r="619" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I619" s="53"/>
+      <c r="I619" s="52"/>
     </row>
     <row r="620" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I620" s="53"/>
+      <c r="I620" s="52"/>
     </row>
     <row r="621" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I621" s="53"/>
+      <c r="I621" s="52"/>
     </row>
     <row r="622" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I622" s="53"/>
+      <c r="I622" s="52"/>
     </row>
     <row r="623" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I623" s="53"/>
+      <c r="I623" s="52"/>
     </row>
     <row r="624" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I624" s="53"/>
+      <c r="I624" s="52"/>
     </row>
     <row r="625" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I625" s="53"/>
+      <c r="I625" s="52"/>
     </row>
     <row r="626" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I626" s="53"/>
+      <c r="I626" s="52"/>
     </row>
     <row r="627" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I627" s="53"/>
+      <c r="I627" s="52"/>
     </row>
     <row r="628" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I628" s="53"/>
+      <c r="I628" s="52"/>
     </row>
     <row r="629" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I629" s="53"/>
+      <c r="I629" s="52"/>
     </row>
     <row r="630" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I630" s="53"/>
+      <c r="I630" s="52"/>
     </row>
     <row r="631" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I631" s="53"/>
+      <c r="I631" s="52"/>
     </row>
     <row r="632" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I632" s="53"/>
+      <c r="I632" s="52"/>
     </row>
     <row r="633" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I633" s="53"/>
+      <c r="I633" s="52"/>
     </row>
     <row r="634" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I634" s="53"/>
+      <c r="I634" s="52"/>
     </row>
     <row r="635" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I635" s="53"/>
+      <c r="I635" s="52"/>
     </row>
     <row r="636" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I636" s="53"/>
+      <c r="I636" s="52"/>
     </row>
     <row r="637" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I637" s="53"/>
+      <c r="I637" s="52"/>
     </row>
     <row r="638" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I638" s="53"/>
+      <c r="I638" s="52"/>
     </row>
     <row r="639" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I639" s="53"/>
+      <c r="I639" s="52"/>
     </row>
     <row r="640" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I640" s="53"/>
+      <c r="I640" s="52"/>
     </row>
     <row r="641" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I641" s="53"/>
+      <c r="I641" s="52"/>
     </row>
     <row r="642" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I642" s="53"/>
+      <c r="I642" s="52"/>
     </row>
     <row r="643" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I643" s="53"/>
+      <c r="I643" s="52"/>
     </row>
     <row r="644" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I644" s="53"/>
+      <c r="I644" s="52"/>
     </row>
     <row r="645" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I645" s="53"/>
+      <c r="I645" s="52"/>
     </row>
     <row r="646" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I646" s="53"/>
+      <c r="I646" s="52"/>
     </row>
     <row r="647" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I647" s="53"/>
+      <c r="I647" s="52"/>
     </row>
     <row r="648" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I648" s="53"/>
+      <c r="I648" s="52"/>
     </row>
     <row r="649" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I649" s="53"/>
+      <c r="I649" s="52"/>
     </row>
     <row r="650" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I650" s="53"/>
+      <c r="I650" s="52"/>
     </row>
     <row r="651" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I651" s="53"/>
+      <c r="I651" s="52"/>
     </row>
     <row r="652" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I652" s="53"/>
+      <c r="I652" s="52"/>
     </row>
     <row r="653" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I653" s="53"/>
+      <c r="I653" s="52"/>
     </row>
     <row r="654" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I654" s="53"/>
+      <c r="I654" s="52"/>
     </row>
     <row r="655" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I655" s="53"/>
+      <c r="I655" s="52"/>
     </row>
     <row r="656" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I656" s="53"/>
+      <c r="I656" s="52"/>
     </row>
     <row r="657" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I657" s="53"/>
+      <c r="I657" s="52"/>
     </row>
     <row r="658" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I658" s="53"/>
+      <c r="I658" s="52"/>
     </row>
     <row r="659" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I659" s="53"/>
+      <c r="I659" s="52"/>
     </row>
     <row r="660" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I660" s="53"/>
+      <c r="I660" s="52"/>
     </row>
     <row r="661" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I661" s="53"/>
+      <c r="I661" s="52"/>
     </row>
     <row r="662" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I662" s="53"/>
+      <c r="I662" s="52"/>
     </row>
     <row r="663" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I663" s="53"/>
+      <c r="I663" s="52"/>
     </row>
     <row r="664" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I664" s="53"/>
+      <c r="I664" s="52"/>
     </row>
     <row r="665" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I665" s="53"/>
+      <c r="I665" s="52"/>
     </row>
     <row r="666" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I666" s="53"/>
+      <c r="I666" s="52"/>
     </row>
     <row r="667" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I667" s="53"/>
+      <c r="I667" s="52"/>
     </row>
     <row r="668" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I668" s="53"/>
+      <c r="I668" s="52"/>
     </row>
     <row r="669" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I669" s="53"/>
+      <c r="I669" s="52"/>
     </row>
     <row r="670" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I670" s="53"/>
+      <c r="I670" s="52"/>
     </row>
     <row r="671" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I671" s="53"/>
+      <c r="I671" s="52"/>
     </row>
     <row r="672" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I672" s="53"/>
+      <c r="I672" s="52"/>
     </row>
     <row r="673" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I673" s="53"/>
+      <c r="I673" s="52"/>
     </row>
     <row r="674" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I674" s="53"/>
+      <c r="I674" s="52"/>
     </row>
     <row r="675" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I675" s="53"/>
+      <c r="I675" s="52"/>
     </row>
     <row r="676" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I676" s="53"/>
+      <c r="I676" s="52"/>
     </row>
     <row r="677" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I677" s="53"/>
+      <c r="I677" s="52"/>
     </row>
     <row r="678" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I678" s="53"/>
+      <c r="I678" s="52"/>
     </row>
     <row r="679" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I679" s="53"/>
+      <c r="I679" s="52"/>
     </row>
     <row r="680" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I680" s="53"/>
+      <c r="I680" s="52"/>
     </row>
     <row r="681" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I681" s="53"/>
+      <c r="I681" s="52"/>
     </row>
     <row r="682" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I682" s="53"/>
+      <c r="I682" s="52"/>
     </row>
     <row r="683" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I683" s="53"/>
+      <c r="I683" s="52"/>
     </row>
     <row r="684" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I684" s="53"/>
+      <c r="I684" s="52"/>
     </row>
     <row r="685" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I685" s="53"/>
+      <c r="I685" s="52"/>
     </row>
     <row r="686" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I686" s="53"/>
+      <c r="I686" s="52"/>
     </row>
     <row r="687" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I687" s="53"/>
+      <c r="I687" s="52"/>
     </row>
     <row r="688" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I688" s="53"/>
+      <c r="I688" s="52"/>
     </row>
     <row r="689" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I689" s="53"/>
+      <c r="I689" s="52"/>
     </row>
     <row r="690" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I690" s="53"/>
+      <c r="I690" s="52"/>
     </row>
     <row r="691" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I691" s="53"/>
+      <c r="I691" s="52"/>
     </row>
     <row r="692" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I692" s="53"/>
+      <c r="I692" s="52"/>
     </row>
     <row r="693" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I693" s="53"/>
+      <c r="I693" s="52"/>
     </row>
     <row r="694" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I694" s="53"/>
+      <c r="I694" s="52"/>
     </row>
     <row r="695" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I695" s="53"/>
+      <c r="I695" s="52"/>
     </row>
     <row r="696" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I696" s="53"/>
+      <c r="I696" s="52"/>
     </row>
     <row r="697" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I697" s="53"/>
+      <c r="I697" s="52"/>
     </row>
     <row r="698" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I698" s="53"/>
+      <c r="I698" s="52"/>
     </row>
     <row r="699" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I699" s="53"/>
+      <c r="I699" s="52"/>
     </row>
     <row r="700" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I700" s="53"/>
+      <c r="I700" s="52"/>
     </row>
     <row r="701" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I701" s="53"/>
+      <c r="I701" s="52"/>
     </row>
     <row r="702" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I702" s="53"/>
+      <c r="I702" s="52"/>
     </row>
     <row r="703" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I703" s="53"/>
+      <c r="I703" s="52"/>
     </row>
     <row r="704" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I704" s="53"/>
+      <c r="I704" s="52"/>
     </row>
     <row r="705" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I705" s="53"/>
+      <c r="I705" s="52"/>
     </row>
     <row r="706" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I706" s="53"/>
+      <c r="I706" s="52"/>
     </row>
     <row r="707" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I707" s="53"/>
+      <c r="I707" s="52"/>
     </row>
     <row r="708" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I708" s="53"/>
+      <c r="I708" s="52"/>
     </row>
     <row r="709" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I709" s="53"/>
+      <c r="I709" s="52"/>
     </row>
     <row r="710" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I710" s="53"/>
+      <c r="I710" s="52"/>
     </row>
     <row r="711" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I711" s="53"/>
+      <c r="I711" s="52"/>
     </row>
     <row r="712" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I712" s="53"/>
+      <c r="I712" s="52"/>
     </row>
     <row r="713" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I713" s="53"/>
+      <c r="I713" s="52"/>
     </row>
     <row r="714" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I714" s="53"/>
+      <c r="I714" s="52"/>
     </row>
     <row r="715" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I715" s="53"/>
+      <c r="I715" s="52"/>
     </row>
     <row r="716" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I716" s="53"/>
+      <c r="I716" s="52"/>
     </row>
     <row r="717" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I717" s="53"/>
+      <c r="I717" s="52"/>
     </row>
     <row r="718" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I718" s="53"/>
+      <c r="I718" s="52"/>
     </row>
     <row r="719" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I719" s="53"/>
+      <c r="I719" s="52"/>
     </row>
     <row r="720" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I720" s="53"/>
+      <c r="I720" s="52"/>
     </row>
     <row r="721" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I721" s="53"/>
+      <c r="I721" s="52"/>
     </row>
     <row r="722" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I722" s="53"/>
+      <c r="I722" s="52"/>
     </row>
     <row r="723" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I723" s="53"/>
+      <c r="I723" s="52"/>
     </row>
     <row r="724" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I724" s="53"/>
+      <c r="I724" s="52"/>
     </row>
     <row r="725" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I725" s="53"/>
+      <c r="I725" s="52"/>
     </row>
     <row r="726" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I726" s="53"/>
+      <c r="I726" s="52"/>
     </row>
     <row r="727" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I727" s="53"/>
+      <c r="I727" s="52"/>
     </row>
     <row r="728" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I728" s="53"/>
+      <c r="I728" s="52"/>
     </row>
     <row r="729" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I729" s="53"/>
+      <c r="I729" s="52"/>
     </row>
     <row r="730" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I730" s="53"/>
+      <c r="I730" s="52"/>
     </row>
     <row r="731" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I731" s="53"/>
+      <c r="I731" s="52"/>
     </row>
     <row r="732" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I732" s="53"/>
+      <c r="I732" s="52"/>
     </row>
     <row r="733" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I733" s="53"/>
+      <c r="I733" s="52"/>
     </row>
     <row r="734" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I734" s="53"/>
+      <c r="I734" s="52"/>
     </row>
     <row r="735" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I735" s="53"/>
+      <c r="I735" s="52"/>
     </row>
     <row r="736" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I736" s="53"/>
+      <c r="I736" s="52"/>
     </row>
     <row r="737" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I737" s="53"/>
+      <c r="I737" s="52"/>
     </row>
     <row r="738" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I738" s="53"/>
+      <c r="I738" s="52"/>
     </row>
     <row r="739" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I739" s="53"/>
+      <c r="I739" s="52"/>
     </row>
     <row r="740" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I740" s="53"/>
+      <c r="I740" s="52"/>
     </row>
     <row r="741" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I741" s="53"/>
+      <c r="I741" s="52"/>
     </row>
     <row r="742" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I742" s="53"/>
+      <c r="I742" s="52"/>
     </row>
     <row r="743" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I743" s="53"/>
+      <c r="I743" s="52"/>
     </row>
     <row r="744" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I744" s="53"/>
+      <c r="I744" s="52"/>
     </row>
     <row r="745" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I745" s="53"/>
+      <c r="I745" s="52"/>
     </row>
     <row r="746" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I746" s="53"/>
+      <c r="I746" s="52"/>
     </row>
     <row r="747" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I747" s="53"/>
+      <c r="I747" s="52"/>
     </row>
     <row r="748" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I748" s="53"/>
+      <c r="I748" s="52"/>
     </row>
     <row r="749" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I749" s="53"/>
+      <c r="I749" s="52"/>
     </row>
     <row r="750" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I750" s="53"/>
+      <c r="I750" s="52"/>
     </row>
     <row r="751" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I751" s="53"/>
+      <c r="I751" s="52"/>
     </row>
     <row r="752" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I752" s="53"/>
+      <c r="I752" s="52"/>
     </row>
     <row r="753" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I753" s="53"/>
+      <c r="I753" s="52"/>
     </row>
     <row r="754" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I754" s="53"/>
+      <c r="I754" s="52"/>
     </row>
     <row r="755" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I755" s="53"/>
+      <c r="I755" s="52"/>
     </row>
     <row r="756" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I756" s="53"/>
+      <c r="I756" s="52"/>
     </row>
     <row r="757" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I757" s="53"/>
+      <c r="I757" s="52"/>
     </row>
     <row r="758" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I758" s="53"/>
+      <c r="I758" s="52"/>
     </row>
     <row r="759" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I759" s="53"/>
+      <c r="I759" s="52"/>
     </row>
     <row r="760" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I760" s="53"/>
+      <c r="I760" s="52"/>
     </row>
     <row r="761" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I761" s="53"/>
+      <c r="I761" s="52"/>
     </row>
     <row r="762" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I762" s="53"/>
+      <c r="I762" s="52"/>
     </row>
     <row r="763" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I763" s="53"/>
+      <c r="I763" s="52"/>
     </row>
     <row r="764" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I764" s="53"/>
+      <c r="I764" s="52"/>
     </row>
     <row r="765" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I765" s="53"/>
+      <c r="I765" s="52"/>
     </row>
     <row r="766" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I766" s="53"/>
+      <c r="I766" s="52"/>
     </row>
     <row r="767" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I767" s="53"/>
+      <c r="I767" s="52"/>
     </row>
     <row r="768" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I768" s="53"/>
+      <c r="I768" s="52"/>
     </row>
     <row r="769" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I769" s="53"/>
+      <c r="I769" s="52"/>
     </row>
     <row r="770" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I770" s="53"/>
+      <c r="I770" s="52"/>
     </row>
     <row r="771" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I771" s="53"/>
+      <c r="I771" s="52"/>
     </row>
     <row r="772" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I772" s="53"/>
+      <c r="I772" s="52"/>
     </row>
     <row r="773" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I773" s="53"/>
+      <c r="I773" s="52"/>
     </row>
     <row r="774" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I774" s="53"/>
+      <c r="I774" s="52"/>
     </row>
     <row r="775" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I775" s="53"/>
+      <c r="I775" s="52"/>
     </row>
     <row r="776" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I776" s="53"/>
+      <c r="I776" s="52"/>
     </row>
     <row r="777" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I777" s="53"/>
+      <c r="I777" s="52"/>
     </row>
     <row r="778" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I778" s="53"/>
+      <c r="I778" s="52"/>
     </row>
     <row r="779" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I779" s="53"/>
+      <c r="I779" s="52"/>
     </row>
     <row r="780" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I780" s="53"/>
+      <c r="I780" s="52"/>
     </row>
     <row r="781" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I781" s="53"/>
+      <c r="I781" s="52"/>
     </row>
     <row r="782" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I782" s="53"/>
+      <c r="I782" s="52"/>
     </row>
     <row r="783" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I783" s="53"/>
+      <c r="I783" s="52"/>
     </row>
     <row r="784" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I784" s="53"/>
+      <c r="I784" s="52"/>
     </row>
     <row r="785" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I785" s="53"/>
+      <c r="I785" s="52"/>
     </row>
     <row r="786" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I786" s="53"/>
+      <c r="I786" s="52"/>
     </row>
     <row r="787" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I787" s="53"/>
+      <c r="I787" s="52"/>
     </row>
     <row r="788" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I788" s="53"/>
+      <c r="I788" s="52"/>
     </row>
     <row r="789" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I789" s="53"/>
+      <c r="I789" s="52"/>
     </row>
     <row r="790" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I790" s="53"/>
+      <c r="I790" s="52"/>
     </row>
     <row r="791" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I791" s="53"/>
+      <c r="I791" s="52"/>
     </row>
     <row r="792" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I792" s="53"/>
+      <c r="I792" s="52"/>
     </row>
     <row r="793" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I793" s="53"/>
+      <c r="I793" s="52"/>
     </row>
     <row r="794" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I794" s="53"/>
+      <c r="I794" s="52"/>
     </row>
     <row r="795" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I795" s="53"/>
+      <c r="I795" s="52"/>
     </row>
     <row r="796" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I796" s="53"/>
+      <c r="I796" s="52"/>
     </row>
     <row r="797" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I797" s="53"/>
+      <c r="I797" s="52"/>
     </row>
     <row r="798" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I798" s="53"/>
+      <c r="I798" s="52"/>
     </row>
     <row r="799" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I799" s="53"/>
+      <c r="I799" s="52"/>
     </row>
     <row r="800" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I800" s="53"/>
+      <c r="I800" s="52"/>
     </row>
     <row r="801" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I801" s="53"/>
+      <c r="I801" s="52"/>
     </row>
     <row r="802" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I802" s="53"/>
+      <c r="I802" s="52"/>
     </row>
     <row r="803" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I803" s="53"/>
+      <c r="I803" s="52"/>
     </row>
     <row r="804" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I804" s="53"/>
+      <c r="I804" s="52"/>
     </row>
     <row r="805" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I805" s="53"/>
+      <c r="I805" s="52"/>
     </row>
     <row r="806" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I806" s="53"/>
+      <c r="I806" s="52"/>
     </row>
     <row r="807" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I807" s="53"/>
+      <c r="I807" s="52"/>
     </row>
     <row r="808" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I808" s="53"/>
+      <c r="I808" s="52"/>
     </row>
     <row r="809" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I809" s="53"/>
+      <c r="I809" s="52"/>
     </row>
     <row r="810" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I810" s="53"/>
+      <c r="I810" s="52"/>
     </row>
     <row r="811" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I811" s="53"/>
+      <c r="I811" s="52"/>
     </row>
     <row r="812" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I812" s="53"/>
+      <c r="I812" s="52"/>
     </row>
     <row r="813" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I813" s="53"/>
+      <c r="I813" s="52"/>
     </row>
     <row r="814" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I814" s="53"/>
+      <c r="I814" s="52"/>
     </row>
     <row r="815" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I815" s="53"/>
+      <c r="I815" s="52"/>
     </row>
     <row r="816" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I816" s="53"/>
+      <c r="I816" s="52"/>
     </row>
     <row r="817" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I817" s="53"/>
+      <c r="I817" s="52"/>
     </row>
     <row r="818" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I818" s="53"/>
+      <c r="I818" s="52"/>
     </row>
     <row r="819" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I819" s="53"/>
+      <c r="I819" s="52"/>
     </row>
     <row r="820" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I820" s="53"/>
+      <c r="I820" s="52"/>
     </row>
     <row r="821" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I821" s="53"/>
+      <c r="I821" s="52"/>
     </row>
     <row r="822" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I822" s="53"/>
+      <c r="I822" s="52"/>
     </row>
     <row r="823" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I823" s="53"/>
+      <c r="I823" s="52"/>
     </row>
     <row r="824" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I824" s="53"/>
+      <c r="I824" s="52"/>
     </row>
     <row r="825" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I825" s="53"/>
+      <c r="I825" s="52"/>
     </row>
     <row r="826" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I826" s="53"/>
+      <c r="I826" s="52"/>
     </row>
     <row r="827" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I827" s="53"/>
+      <c r="I827" s="52"/>
     </row>
     <row r="828" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I828" s="53"/>
+      <c r="I828" s="52"/>
     </row>
     <row r="829" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I829" s="53"/>
+      <c r="I829" s="52"/>
     </row>
     <row r="830" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I830" s="53"/>
+      <c r="I830" s="52"/>
     </row>
     <row r="831" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I831" s="53"/>
+      <c r="I831" s="52"/>
     </row>
     <row r="832" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I832" s="53"/>
+      <c r="I832" s="52"/>
     </row>
     <row r="833" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I833" s="53"/>
+      <c r="I833" s="52"/>
     </row>
     <row r="834" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I834" s="53"/>
+      <c r="I834" s="52"/>
     </row>
     <row r="835" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I835" s="53"/>
+      <c r="I835" s="52"/>
     </row>
     <row r="836" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I836" s="53"/>
+      <c r="I836" s="52"/>
     </row>
     <row r="837" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I837" s="53"/>
+      <c r="I837" s="52"/>
     </row>
     <row r="838" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I838" s="53"/>
+      <c r="I838" s="52"/>
     </row>
     <row r="839" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I839" s="53"/>
+      <c r="I839" s="52"/>
     </row>
     <row r="840" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I840" s="53"/>
+      <c r="I840" s="52"/>
     </row>
     <row r="841" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I841" s="53"/>
+      <c r="I841" s="52"/>
     </row>
     <row r="842" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I842" s="53"/>
+      <c r="I842" s="52"/>
     </row>
     <row r="843" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I843" s="53"/>
+      <c r="I843" s="52"/>
     </row>
     <row r="844" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I844" s="53"/>
+      <c r="I844" s="52"/>
     </row>
     <row r="845" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I845" s="53"/>
+      <c r="I845" s="52"/>
     </row>
     <row r="846" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I846" s="53"/>
+      <c r="I846" s="52"/>
     </row>
     <row r="847" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I847" s="53"/>
+      <c r="I847" s="52"/>
     </row>
     <row r="848" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I848" s="53"/>
+      <c r="I848" s="52"/>
     </row>
     <row r="849" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I849" s="53"/>
+      <c r="I849" s="52"/>
     </row>
     <row r="850" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I850" s="53"/>
+      <c r="I850" s="52"/>
     </row>
     <row r="851" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I851" s="53"/>
+      <c r="I851" s="52"/>
     </row>
     <row r="852" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I852" s="53"/>
+      <c r="I852" s="52"/>
     </row>
     <row r="853" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I853" s="53"/>
+      <c r="I853" s="52"/>
     </row>
     <row r="854" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I854" s="53"/>
+      <c r="I854" s="52"/>
     </row>
     <row r="855" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I855" s="53"/>
+      <c r="I855" s="52"/>
     </row>
     <row r="856" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I856" s="53"/>
+      <c r="I856" s="52"/>
     </row>
     <row r="857" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I857" s="53"/>
+      <c r="I857" s="52"/>
     </row>
     <row r="858" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I858" s="53"/>
+      <c r="I858" s="52"/>
     </row>
     <row r="859" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I859" s="53"/>
+      <c r="I859" s="52"/>
     </row>
     <row r="860" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I860" s="53"/>
+      <c r="I860" s="52"/>
     </row>
     <row r="861" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I861" s="53"/>
+      <c r="I861" s="52"/>
     </row>
     <row r="862" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I862" s="53"/>
+      <c r="I862" s="52"/>
     </row>
     <row r="863" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I863" s="53"/>
+      <c r="I863" s="52"/>
     </row>
     <row r="864" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I864" s="53"/>
+      <c r="I864" s="52"/>
     </row>
     <row r="865" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I865" s="53"/>
+      <c r="I865" s="52"/>
     </row>
     <row r="866" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I866" s="53"/>
+      <c r="I866" s="52"/>
     </row>
     <row r="867" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I867" s="53"/>
+      <c r="I867" s="52"/>
     </row>
     <row r="868" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I868" s="53"/>
+      <c r="I868" s="52"/>
     </row>
     <row r="869" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I869" s="53"/>
+      <c r="I869" s="52"/>
     </row>
     <row r="870" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I870" s="53"/>
+      <c r="I870" s="52"/>
     </row>
     <row r="871" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I871" s="53"/>
+      <c r="I871" s="52"/>
     </row>
     <row r="872" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I872" s="53"/>
+      <c r="I872" s="52"/>
     </row>
     <row r="873" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I873" s="53"/>
+      <c r="I873" s="52"/>
     </row>
     <row r="874" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I874" s="53"/>
+      <c r="I874" s="52"/>
     </row>
     <row r="875" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I875" s="53"/>
+      <c r="I875" s="52"/>
     </row>
     <row r="876" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I876" s="53"/>
+      <c r="I876" s="52"/>
     </row>
     <row r="877" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I877" s="53"/>
+      <c r="I877" s="52"/>
     </row>
     <row r="878" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I878" s="53"/>
+      <c r="I878" s="52"/>
     </row>
     <row r="879" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I879" s="53"/>
+      <c r="I879" s="52"/>
     </row>
     <row r="880" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I880" s="53"/>
+      <c r="I880" s="52"/>
     </row>
     <row r="881" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I881" s="53"/>
+      <c r="I881" s="52"/>
     </row>
     <row r="882" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I882" s="53"/>
+      <c r="I882" s="52"/>
     </row>
     <row r="883" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I883" s="53"/>
+      <c r="I883" s="52"/>
     </row>
     <row r="884" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I884" s="53"/>
+      <c r="I884" s="52"/>
     </row>
     <row r="885" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I885" s="53"/>
+      <c r="I885" s="52"/>
     </row>
     <row r="886" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I886" s="53"/>
+      <c r="I886" s="52"/>
     </row>
     <row r="887" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I887" s="53"/>
+      <c r="I887" s="52"/>
     </row>
     <row r="888" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I888" s="53"/>
+      <c r="I888" s="52"/>
     </row>
     <row r="889" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I889" s="53"/>
+      <c r="I889" s="52"/>
     </row>
     <row r="890" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I890" s="53"/>
+      <c r="I890" s="52"/>
     </row>
     <row r="891" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I891" s="53"/>
+      <c r="I891" s="52"/>
     </row>
     <row r="892" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I892" s="53"/>
+      <c r="I892" s="52"/>
     </row>
     <row r="893" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I893" s="53"/>
+      <c r="I893" s="52"/>
     </row>
     <row r="894" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I894" s="53"/>
+      <c r="I894" s="52"/>
     </row>
     <row r="895" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I895" s="53"/>
+      <c r="I895" s="52"/>
     </row>
     <row r="896" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I896" s="53"/>
+      <c r="I896" s="52"/>
     </row>
     <row r="897" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I897" s="53"/>
+      <c r="I897" s="52"/>
     </row>
     <row r="898" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I898" s="53"/>
+      <c r="I898" s="52"/>
     </row>
     <row r="899" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I899" s="53"/>
+      <c r="I899" s="52"/>
     </row>
     <row r="900" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I900" s="53"/>
+      <c r="I900" s="52"/>
     </row>
     <row r="901" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I901" s="53"/>
+      <c r="I901" s="52"/>
     </row>
     <row r="902" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I902" s="53"/>
+      <c r="I902" s="52"/>
     </row>
     <row r="903" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I903" s="53"/>
+      <c r="I903" s="52"/>
     </row>
     <row r="904" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I904" s="53"/>
+      <c r="I904" s="52"/>
     </row>
     <row r="905" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I905" s="53"/>
+      <c r="I905" s="52"/>
     </row>
     <row r="906" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I906" s="53"/>
+      <c r="I906" s="52"/>
     </row>
     <row r="907" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I907" s="53"/>
+      <c r="I907" s="52"/>
     </row>
     <row r="908" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I908" s="53"/>
+      <c r="I908" s="52"/>
     </row>
     <row r="909" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I909" s="53"/>
+      <c r="I909" s="52"/>
     </row>
     <row r="910" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I910" s="53"/>
+      <c r="I910" s="52"/>
     </row>
     <row r="911" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I911" s="53"/>
+      <c r="I911" s="52"/>
     </row>
     <row r="912" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I912" s="53"/>
+      <c r="I912" s="52"/>
     </row>
     <row r="913" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I913" s="53"/>
+      <c r="I913" s="52"/>
     </row>
     <row r="914" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I914" s="53"/>
+      <c r="I914" s="52"/>
     </row>
     <row r="915" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I915" s="53"/>
+      <c r="I915" s="52"/>
     </row>
     <row r="916" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I916" s="53"/>
+      <c r="I916" s="52"/>
     </row>
     <row r="917" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I917" s="53"/>
+      <c r="I917" s="52"/>
     </row>
     <row r="918" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I918" s="53"/>
+      <c r="I918" s="52"/>
     </row>
     <row r="919" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I919" s="53"/>
+      <c r="I919" s="52"/>
     </row>
     <row r="920" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I920" s="53"/>
+      <c r="I920" s="52"/>
     </row>
     <row r="921" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I921" s="53"/>
+      <c r="I921" s="52"/>
     </row>
     <row r="922" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I922" s="53"/>
+      <c r="I922" s="52"/>
     </row>
     <row r="923" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I923" s="53"/>
+      <c r="I923" s="52"/>
     </row>
     <row r="924" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I924" s="53"/>
+      <c r="I924" s="52"/>
     </row>
     <row r="925" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I925" s="53"/>
+      <c r="I925" s="52"/>
     </row>
     <row r="926" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I926" s="53"/>
+      <c r="I926" s="52"/>
     </row>
     <row r="927" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I927" s="53"/>
+      <c r="I927" s="52"/>
     </row>
     <row r="928" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I928" s="53"/>
+      <c r="I928" s="52"/>
     </row>
     <row r="929" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I929" s="53"/>
+      <c r="I929" s="52"/>
     </row>
     <row r="930" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I930" s="53"/>
+      <c r="I930" s="52"/>
     </row>
     <row r="931" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I931" s="53"/>
+      <c r="I931" s="52"/>
     </row>
     <row r="932" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I932" s="53"/>
+      <c r="I932" s="52"/>
     </row>
     <row r="933" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I933" s="53"/>
+      <c r="I933" s="52"/>
     </row>
     <row r="934" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I934" s="53"/>
+      <c r="I934" s="52"/>
     </row>
     <row r="935" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I935" s="53"/>
+      <c r="I935" s="52"/>
     </row>
     <row r="936" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I936" s="53"/>
+      <c r="I936" s="52"/>
     </row>
     <row r="937" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I937" s="53"/>
+      <c r="I937" s="52"/>
     </row>
     <row r="938" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I938" s="53"/>
+      <c r="I938" s="52"/>
     </row>
     <row r="939" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I939" s="53"/>
+      <c r="I939" s="52"/>
     </row>
     <row r="940" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I940" s="53"/>
+      <c r="I940" s="52"/>
     </row>
     <row r="941" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I941" s="53"/>
+      <c r="I941" s="52"/>
     </row>
     <row r="942" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I942" s="53"/>
+      <c r="I942" s="52"/>
     </row>
     <row r="943" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I943" s="53"/>
+      <c r="I943" s="52"/>
     </row>
     <row r="944" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I944" s="53"/>
+      <c r="I944" s="52"/>
     </row>
     <row r="945" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I945" s="53"/>
+      <c r="I945" s="52"/>
     </row>
     <row r="946" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I946" s="53"/>
+      <c r="I946" s="52"/>
     </row>
     <row r="947" spans="9:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I947" s="53"/>
+      <c r="I947" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -49184,7 +49187,7 @@
   </sheetPr>
   <dimension ref="A1:W958"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
